--- a/config_1.5/box_exchange_server.xlsx
+++ b/config_1.5/box_exchange_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="691">
   <si>
     <t>id|</t>
   </si>
@@ -4009,6 +4009,188 @@
   <si>
     <t>1,1</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>庆典礼包抽奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0福利券</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000金币</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为P40</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4230,7 +4412,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4329,7 +4511,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4441,6 +4622,24 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4719,11 +4918,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4744,7 +4943,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -5960,7 +6159,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="42" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6016,7 +6215,7 @@
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>479</v>
       </c>
       <c r="C43" s="6">
@@ -6108,7 +6307,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="42" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6140,7 +6339,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="42" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -6172,7 +6371,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="42" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -6204,7 +6403,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="42" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -6236,7 +6435,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="42" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -6268,7 +6467,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="42" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -6300,7 +6499,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="42" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -6440,115 +6639,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="49" customFormat="1">
+    <row r="58" spans="1:12" s="48" customFormat="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="49" t="s">
+      <c r="B58" s="48" t="s">
         <v>607</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="49">
         <v>52</v>
       </c>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="49">
+      <c r="F58" s="50"/>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="50"/>
+      <c r="K58" s="48">
         <v>57</v>
       </c>
-      <c r="L58" s="49">
+      <c r="L58" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="49" customFormat="1">
+    <row r="59" spans="1:12" s="48" customFormat="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="48" t="s">
         <v>608</v>
       </c>
-      <c r="C59" s="49">
+      <c r="C59" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D59" s="49">
+      <c r="D59" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="49">
         <v>53</v>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="49">
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="50"/>
+      <c r="K59" s="48">
         <v>58</v>
       </c>
-      <c r="L59" s="49">
+      <c r="L59" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="49" customFormat="1">
+    <row r="60" spans="1:12" s="48" customFormat="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="49" t="s">
+      <c r="B60" s="48" t="s">
         <v>609</v>
       </c>
-      <c r="C60" s="49">
+      <c r="C60" s="48">
         <v>1606176000</v>
       </c>
-      <c r="D60" s="49">
+      <c r="D60" s="48">
         <v>1606751999</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="49">
         <v>54</v>
       </c>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="49">
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="48">
         <v>59</v>
       </c>
-      <c r="L60" s="49">
+      <c r="L60" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="61" customFormat="1">
+    <row r="61" spans="1:12" s="60" customFormat="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="60" t="s">
         <v>668</v>
       </c>
-      <c r="C61" s="64">
+      <c r="C61" s="63">
         <v>1607385600</v>
       </c>
-      <c r="D61" s="64">
+      <c r="D61" s="63">
         <v>1607961599</v>
       </c>
-      <c r="E61" s="62">
+      <c r="E61" s="61">
         <v>55</v>
       </c>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="61">
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="60">
         <v>60</v>
       </c>
-      <c r="L61" s="61">
+      <c r="L61" s="60">
         <v>1</v>
       </c>
     </row>
@@ -6603,31 +6802,31 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="73" t="s">
+      <c r="B64" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="75">
+      <c r="C64" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="75">
+      <c r="D64" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E64" s="74">
+      <c r="E64" s="73">
         <v>58</v>
       </c>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77">
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76">
         <v>1</v>
       </c>
-      <c r="J64" s="77">
+      <c r="J64" s="76">
         <v>0</v>
       </c>
-      <c r="K64" s="72">
+      <c r="K64" s="71">
         <v>63</v>
       </c>
-      <c r="L64" s="72">
+      <c r="L64" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6635,31 +6834,31 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="73" t="s">
+      <c r="B65" s="72" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="75">
+      <c r="C65" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="75">
+      <c r="D65" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E65" s="74">
+      <c r="E65" s="73">
         <v>59</v>
       </c>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77">
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76">
         <v>1</v>
       </c>
-      <c r="J65" s="77">
+      <c r="J65" s="76">
         <v>0</v>
       </c>
-      <c r="K65" s="72">
+      <c r="K65" s="71">
         <v>64</v>
       </c>
-      <c r="L65" s="72">
+      <c r="L65" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6667,31 +6866,31 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="72" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="75">
+      <c r="C66" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="75">
+      <c r="D66" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E66" s="74">
+      <c r="E66" s="73">
         <v>60</v>
       </c>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77">
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76">
         <v>1</v>
       </c>
-      <c r="J66" s="77">
+      <c r="J66" s="76">
         <v>0</v>
       </c>
-      <c r="K66" s="72">
+      <c r="K66" s="71">
         <v>65</v>
       </c>
-      <c r="L66" s="72">
+      <c r="L66" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6699,31 +6898,31 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="72" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="75">
+      <c r="C67" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="75">
+      <c r="D67" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E67" s="74">
+      <c r="E67" s="73">
         <v>61</v>
       </c>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77">
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76">
         <v>1</v>
       </c>
-      <c r="J67" s="77">
+      <c r="J67" s="76">
         <v>0</v>
       </c>
-      <c r="K67" s="72">
+      <c r="K67" s="71">
         <v>66</v>
       </c>
-      <c r="L67" s="72">
+      <c r="L67" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6731,31 +6930,31 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="72" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="75">
+      <c r="C68" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="75">
+      <c r="D68" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E68" s="74">
+      <c r="E68" s="73">
         <v>62</v>
       </c>
-      <c r="F68" s="77"/>
-      <c r="G68" s="77"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77">
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="76"/>
+      <c r="I68" s="76">
         <v>1</v>
       </c>
-      <c r="J68" s="77">
+      <c r="J68" s="76">
         <v>0</v>
       </c>
-      <c r="K68" s="72">
+      <c r="K68" s="71">
         <v>67</v>
       </c>
-      <c r="L68" s="72">
+      <c r="L68" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6763,31 +6962,59 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="72" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="75">
+      <c r="C69" s="74">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="75">
+      <c r="D69" s="74">
         <v>1609775999</v>
       </c>
-      <c r="E69" s="74">
+      <c r="E69" s="73">
         <v>63</v>
       </c>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77">
+      <c r="F69" s="76"/>
+      <c r="G69" s="76"/>
+      <c r="H69" s="76"/>
+      <c r="I69" s="76">
         <v>1</v>
       </c>
-      <c r="J69" s="77">
+      <c r="J69" s="76">
         <v>0</v>
       </c>
-      <c r="K69" s="72">
+      <c r="K69" s="71">
         <v>68</v>
       </c>
-      <c r="L69" s="72">
+      <c r="L69" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="18" customFormat="1">
+      <c r="A70" s="18">
+        <v>69</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>678</v>
+      </c>
+      <c r="C70" s="79">
+        <v>1609804800</v>
+      </c>
+      <c r="D70" s="79">
+        <v>1610380799</v>
+      </c>
+      <c r="E70" s="80">
+        <v>64</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="81">
+        <v>69</v>
+      </c>
+      <c r="L70" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6802,11 +7029,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7312,7 +7539,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="42" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -7340,7 +7567,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -7354,7 +7581,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="43" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -7368,7 +7595,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="44" t="s">
+      <c r="C40" s="43" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -7382,7 +7609,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="43" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -7494,7 +7721,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="52" t="s">
+      <c r="C49" s="51" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -7508,7 +7735,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="52" t="s">
+      <c r="C50" s="51" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -7522,7 +7749,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="51" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -7543,56 +7770,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="51" customFormat="1">
-      <c r="A53" s="51">
+    <row r="53" spans="1:4" s="50" customFormat="1">
+      <c r="A53" s="50">
         <v>52</v>
       </c>
-      <c r="B53" s="51">
+      <c r="B53" s="50">
         <v>52</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="48" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="49">
+      <c r="D53" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="51" customFormat="1">
-      <c r="A54" s="51">
+    <row r="54" spans="1:4" s="50" customFormat="1">
+      <c r="A54" s="50">
         <v>53</v>
       </c>
-      <c r="B54" s="51">
+      <c r="B54" s="50">
         <v>53</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="49">
+      <c r="D54" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="51" customFormat="1">
-      <c r="A55" s="51">
+    <row r="55" spans="1:4" s="50" customFormat="1">
+      <c r="A55" s="50">
         <v>54</v>
       </c>
-      <c r="B55" s="51">
+      <c r="B55" s="50">
         <v>54</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="51">
+      <c r="A56" s="50">
         <v>55</v>
       </c>
-      <c r="B56" s="51">
+      <c r="B56" s="50">
         <v>55</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="64" t="s">
         <v>667</v>
       </c>
       <c r="D56" s="6">
@@ -7606,7 +7833,7 @@
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="44" t="s">
+      <c r="C57" s="43" t="s">
         <v>672</v>
       </c>
       <c r="D57" s="6">
@@ -7620,7 +7847,7 @@
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="43" t="s">
         <v>673</v>
       </c>
       <c r="D58" s="6">
@@ -7634,10 +7861,10 @@
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="71" t="s">
+      <c r="C59" s="70" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="72">
+      <c r="D59" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7648,10 +7875,10 @@
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="71" t="s">
+      <c r="C60" s="70" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="72">
+      <c r="D60" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7662,10 +7889,10 @@
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="71" t="s">
+      <c r="C61" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="72">
+      <c r="D61" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7676,10 +7903,10 @@
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="72">
+      <c r="D62" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7690,10 +7917,10 @@
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="72">
+      <c r="D63" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7704,10 +7931,24 @@
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="72">
+      <c r="D64" s="71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="17">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17">
+        <v>64</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="D65" s="40">
         <v>1</v>
       </c>
     </row>
@@ -7763,13 +8004,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E421"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B382" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D416" sqref="D416"/>
+      <selection pane="bottomRight" activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -12684,465 +12925,465 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="59" customFormat="1">
-      <c r="A351" s="59">
+    <row r="351" spans="1:4" s="58" customFormat="1">
+      <c r="A351" s="58">
         <v>350</v>
       </c>
-      <c r="B351" s="59">
+      <c r="B351" s="58">
         <v>57</v>
       </c>
-      <c r="C351" s="59">
+      <c r="C351" s="58">
         <v>11824</v>
       </c>
-      <c r="D351" s="59">
+      <c r="D351" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="59" customFormat="1">
-      <c r="A352" s="59">
+    <row r="352" spans="1:4" s="58" customFormat="1">
+      <c r="A352" s="58">
         <v>351</v>
       </c>
-      <c r="B352" s="59">
+      <c r="B352" s="58">
         <v>57</v>
       </c>
-      <c r="C352" s="59">
+      <c r="C352" s="58">
         <v>11825</v>
       </c>
-      <c r="D352" s="59">
+      <c r="D352" s="58">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="59" customFormat="1">
-      <c r="A353" s="59">
+    <row r="353" spans="1:4" s="58" customFormat="1">
+      <c r="A353" s="58">
         <v>352</v>
       </c>
-      <c r="B353" s="59">
+      <c r="B353" s="58">
         <v>57</v>
       </c>
-      <c r="C353" s="59">
+      <c r="C353" s="58">
         <v>11826</v>
       </c>
-      <c r="D353" s="59">
+      <c r="D353" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="59" customFormat="1">
-      <c r="A354" s="59">
+    <row r="354" spans="1:4" s="58" customFormat="1">
+      <c r="A354" s="58">
         <v>353</v>
       </c>
-      <c r="B354" s="59">
+      <c r="B354" s="58">
         <v>57</v>
       </c>
-      <c r="C354" s="59">
+      <c r="C354" s="58">
         <v>11827</v>
       </c>
-      <c r="D354" s="59">
+      <c r="D354" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="59" customFormat="1">
-      <c r="A355" s="59">
+    <row r="355" spans="1:4" s="58" customFormat="1">
+      <c r="A355" s="58">
         <v>354</v>
       </c>
-      <c r="B355" s="59">
+      <c r="B355" s="58">
         <v>57</v>
       </c>
-      <c r="C355" s="59">
+      <c r="C355" s="58">
         <v>11828</v>
       </c>
-      <c r="D355" s="59">
+      <c r="D355" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="59" customFormat="1">
-      <c r="A356" s="59">
+    <row r="356" spans="1:4" s="58" customFormat="1">
+      <c r="A356" s="58">
         <v>355</v>
       </c>
-      <c r="B356" s="59">
+      <c r="B356" s="58">
         <v>57</v>
       </c>
-      <c r="C356" s="59">
+      <c r="C356" s="58">
         <v>11829</v>
       </c>
-      <c r="D356" s="59">
+      <c r="D356" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="59" customFormat="1">
-      <c r="A357" s="59">
+    <row r="357" spans="1:4" s="58" customFormat="1">
+      <c r="A357" s="58">
         <v>356</v>
       </c>
-      <c r="B357" s="59">
+      <c r="B357" s="58">
         <v>57</v>
       </c>
-      <c r="C357" s="59">
+      <c r="C357" s="58">
         <v>11830</v>
       </c>
-      <c r="D357" s="59">
+      <c r="D357" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="59" customFormat="1">
-      <c r="A358" s="59">
+    <row r="358" spans="1:4" s="58" customFormat="1">
+      <c r="A358" s="58">
         <v>357</v>
       </c>
-      <c r="B358" s="59">
+      <c r="B358" s="58">
         <v>57</v>
       </c>
-      <c r="C358" s="59">
+      <c r="C358" s="58">
         <v>11831</v>
       </c>
-      <c r="D358" s="59">
+      <c r="D358" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="59" customFormat="1">
-      <c r="A359" s="59">
+    <row r="359" spans="1:4" s="58" customFormat="1">
+      <c r="A359" s="58">
         <v>358</v>
       </c>
-      <c r="B359" s="59">
+      <c r="B359" s="58">
         <v>57</v>
       </c>
-      <c r="C359" s="59">
+      <c r="C359" s="58">
         <v>11832</v>
       </c>
-      <c r="D359" s="59">
+      <c r="D359" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="54" customFormat="1">
-      <c r="A360" s="54">
+    <row r="360" spans="1:4" s="53" customFormat="1">
+      <c r="A360" s="53">
         <v>359</v>
       </c>
-      <c r="B360" s="60">
+      <c r="B360" s="59">
         <v>58</v>
       </c>
-      <c r="C360" s="54">
+      <c r="C360" s="53">
         <v>11833</v>
       </c>
-      <c r="D360" s="60">
+      <c r="D360" s="59">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="54" customFormat="1">
-      <c r="A361" s="54">
+    <row r="361" spans="1:4" s="53" customFormat="1">
+      <c r="A361" s="53">
         <v>360</v>
       </c>
-      <c r="B361" s="60">
+      <c r="B361" s="59">
         <v>58</v>
       </c>
-      <c r="C361" s="54">
+      <c r="C361" s="53">
         <v>11834</v>
       </c>
-      <c r="D361" s="60">
+      <c r="D361" s="59">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="54" customFormat="1">
-      <c r="A362" s="54">
+    <row r="362" spans="1:4" s="53" customFormat="1">
+      <c r="A362" s="53">
         <v>361</v>
       </c>
-      <c r="B362" s="60">
+      <c r="B362" s="59">
         <v>58</v>
       </c>
-      <c r="C362" s="54">
+      <c r="C362" s="53">
         <v>11835</v>
       </c>
-      <c r="D362" s="60">
+      <c r="D362" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="54" customFormat="1">
-      <c r="A363" s="54">
+    <row r="363" spans="1:4" s="53" customFormat="1">
+      <c r="A363" s="53">
         <v>362</v>
       </c>
-      <c r="B363" s="60">
+      <c r="B363" s="59">
         <v>58</v>
       </c>
-      <c r="C363" s="54">
+      <c r="C363" s="53">
         <v>11836</v>
       </c>
-      <c r="D363" s="60">
+      <c r="D363" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="54" customFormat="1">
-      <c r="A364" s="54">
+    <row r="364" spans="1:4" s="53" customFormat="1">
+      <c r="A364" s="53">
         <v>363</v>
       </c>
-      <c r="B364" s="60">
+      <c r="B364" s="59">
         <v>58</v>
       </c>
-      <c r="C364" s="54">
+      <c r="C364" s="53">
         <v>11837</v>
       </c>
-      <c r="D364" s="60">
+      <c r="D364" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="54" customFormat="1">
-      <c r="A365" s="54">
+    <row r="365" spans="1:4" s="53" customFormat="1">
+      <c r="A365" s="53">
         <v>364</v>
       </c>
-      <c r="B365" s="60">
+      <c r="B365" s="59">
         <v>58</v>
       </c>
-      <c r="C365" s="54">
+      <c r="C365" s="53">
         <v>11838</v>
       </c>
-      <c r="D365" s="60">
+      <c r="D365" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="54" customFormat="1">
-      <c r="A366" s="54">
+    <row r="366" spans="1:4" s="53" customFormat="1">
+      <c r="A366" s="53">
         <v>365</v>
       </c>
-      <c r="B366" s="60">
+      <c r="B366" s="59">
         <v>58</v>
       </c>
-      <c r="C366" s="54">
+      <c r="C366" s="53">
         <v>11839</v>
       </c>
-      <c r="D366" s="60">
+      <c r="D366" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="54" customFormat="1">
-      <c r="A367" s="54">
+    <row r="367" spans="1:4" s="53" customFormat="1">
+      <c r="A367" s="53">
         <v>366</v>
       </c>
-      <c r="B367" s="60">
+      <c r="B367" s="59">
         <v>58</v>
       </c>
-      <c r="C367" s="54">
+      <c r="C367" s="53">
         <v>11840</v>
       </c>
-      <c r="D367" s="60">
+      <c r="D367" s="59">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="54" customFormat="1">
-      <c r="A368" s="54">
+    <row r="368" spans="1:4" s="53" customFormat="1">
+      <c r="A368" s="53">
         <v>367</v>
       </c>
-      <c r="B368" s="60">
+      <c r="B368" s="59">
         <v>58</v>
       </c>
-      <c r="C368" s="54">
+      <c r="C368" s="53">
         <v>11841</v>
       </c>
-      <c r="D368" s="60">
+      <c r="D368" s="59">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="48" customFormat="1">
-      <c r="A369" s="48">
+    <row r="369" spans="1:4" s="47" customFormat="1">
+      <c r="A369" s="47">
         <v>368</v>
       </c>
-      <c r="B369" s="59">
+      <c r="B369" s="58">
         <v>59</v>
       </c>
-      <c r="C369" s="48">
+      <c r="C369" s="47">
         <v>11842</v>
       </c>
-      <c r="D369" s="59">
+      <c r="D369" s="58">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="48" customFormat="1">
-      <c r="A370" s="48">
+    <row r="370" spans="1:4" s="47" customFormat="1">
+      <c r="A370" s="47">
         <v>369</v>
       </c>
-      <c r="B370" s="59">
+      <c r="B370" s="58">
         <v>59</v>
       </c>
-      <c r="C370" s="48">
+      <c r="C370" s="47">
         <v>11843</v>
       </c>
-      <c r="D370" s="59">
+      <c r="D370" s="58">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="48" customFormat="1">
-      <c r="A371" s="48">
+    <row r="371" spans="1:4" s="47" customFormat="1">
+      <c r="A371" s="47">
         <v>370</v>
       </c>
-      <c r="B371" s="59">
+      <c r="B371" s="58">
         <v>59</v>
       </c>
-      <c r="C371" s="48">
+      <c r="C371" s="47">
         <v>11844</v>
       </c>
-      <c r="D371" s="59">
+      <c r="D371" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="48" customFormat="1">
-      <c r="A372" s="48">
+    <row r="372" spans="1:4" s="47" customFormat="1">
+      <c r="A372" s="47">
         <v>371</v>
       </c>
-      <c r="B372" s="59">
+      <c r="B372" s="58">
         <v>59</v>
       </c>
-      <c r="C372" s="48">
+      <c r="C372" s="47">
         <v>11845</v>
       </c>
-      <c r="D372" s="59">
+      <c r="D372" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="48" customFormat="1">
-      <c r="A373" s="48">
+    <row r="373" spans="1:4" s="47" customFormat="1">
+      <c r="A373" s="47">
         <v>372</v>
       </c>
-      <c r="B373" s="59">
+      <c r="B373" s="58">
         <v>59</v>
       </c>
-      <c r="C373" s="48">
+      <c r="C373" s="47">
         <v>11846</v>
       </c>
-      <c r="D373" s="59">
+      <c r="D373" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="48" customFormat="1">
-      <c r="A374" s="48">
+    <row r="374" spans="1:4" s="47" customFormat="1">
+      <c r="A374" s="47">
         <v>373</v>
       </c>
-      <c r="B374" s="59">
+      <c r="B374" s="58">
         <v>59</v>
       </c>
-      <c r="C374" s="48">
+      <c r="C374" s="47">
         <v>11847</v>
       </c>
-      <c r="D374" s="59">
+      <c r="D374" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="48" customFormat="1">
-      <c r="A375" s="48">
+    <row r="375" spans="1:4" s="47" customFormat="1">
+      <c r="A375" s="47">
         <v>374</v>
       </c>
-      <c r="B375" s="59">
+      <c r="B375" s="58">
         <v>59</v>
       </c>
-      <c r="C375" s="48">
+      <c r="C375" s="47">
         <v>11848</v>
       </c>
-      <c r="D375" s="59">
+      <c r="D375" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="48" customFormat="1">
-      <c r="A376" s="48">
+    <row r="376" spans="1:4" s="47" customFormat="1">
+      <c r="A376" s="47">
         <v>375</v>
       </c>
-      <c r="B376" s="59">
+      <c r="B376" s="58">
         <v>59</v>
       </c>
-      <c r="C376" s="48">
+      <c r="C376" s="47">
         <v>11849</v>
       </c>
-      <c r="D376" s="59">
+      <c r="D376" s="58">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="48" customFormat="1">
-      <c r="A377" s="48">
+    <row r="377" spans="1:4" s="47" customFormat="1">
+      <c r="A377" s="47">
         <v>376</v>
       </c>
-      <c r="B377" s="59">
+      <c r="B377" s="58">
         <v>59</v>
       </c>
-      <c r="C377" s="48">
+      <c r="C377" s="47">
         <v>11850</v>
       </c>
-      <c r="D377" s="59">
+      <c r="D377" s="58">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="64" customFormat="1">
-      <c r="A378" s="64">
+    <row r="378" spans="1:4" s="63" customFormat="1">
+      <c r="A378" s="63">
         <v>377</v>
       </c>
-      <c r="B378" s="64">
+      <c r="B378" s="63">
         <v>60</v>
       </c>
-      <c r="C378" s="64">
+      <c r="C378" s="63">
         <v>11851</v>
       </c>
-      <c r="D378" s="64">
+      <c r="D378" s="63">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="64" customFormat="1">
-      <c r="A379" s="64">
+    <row r="379" spans="1:4" s="63" customFormat="1">
+      <c r="A379" s="63">
         <v>378</v>
       </c>
-      <c r="B379" s="64">
+      <c r="B379" s="63">
         <v>60</v>
       </c>
-      <c r="C379" s="64">
+      <c r="C379" s="63">
         <v>11852</v>
       </c>
-      <c r="D379" s="64">
+      <c r="D379" s="63">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="64" customFormat="1">
-      <c r="A380" s="64">
+    <row r="380" spans="1:4" s="63" customFormat="1">
+      <c r="A380" s="63">
         <v>379</v>
       </c>
-      <c r="B380" s="64">
+      <c r="B380" s="63">
         <v>60</v>
       </c>
-      <c r="C380" s="64">
+      <c r="C380" s="63">
         <v>11853</v>
       </c>
-      <c r="D380" s="64">
+      <c r="D380" s="63">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="64" customFormat="1">
-      <c r="A381" s="64">
+    <row r="381" spans="1:4" s="63" customFormat="1">
+      <c r="A381" s="63">
         <v>380</v>
       </c>
-      <c r="B381" s="64">
+      <c r="B381" s="63">
         <v>60</v>
       </c>
-      <c r="C381" s="64">
+      <c r="C381" s="63">
         <v>11854</v>
       </c>
-      <c r="D381" s="64">
+      <c r="D381" s="63">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="64" customFormat="1">
-      <c r="A382" s="64">
+    <row r="382" spans="1:4" s="63" customFormat="1">
+      <c r="A382" s="63">
         <v>381</v>
       </c>
-      <c r="B382" s="64">
+      <c r="B382" s="63">
         <v>60</v>
       </c>
-      <c r="C382" s="64">
+      <c r="C382" s="63">
         <v>11855</v>
       </c>
-      <c r="D382" s="64">
+      <c r="D382" s="63">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="64" customFormat="1">
-      <c r="A383" s="64">
+    <row r="383" spans="1:4" s="63" customFormat="1">
+      <c r="A383" s="63">
         <v>382</v>
       </c>
-      <c r="B383" s="64">
+      <c r="B383" s="63">
         <v>60</v>
       </c>
-      <c r="C383" s="64">
+      <c r="C383" s="63">
         <v>11856</v>
       </c>
-      <c r="D383" s="64">
+      <c r="D383" s="63">
         <v>0</v>
       </c>
     </row>
@@ -13153,7 +13394,7 @@
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="64">
+      <c r="C384" s="63">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
@@ -13167,7 +13408,7 @@
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="64">
+      <c r="C385" s="63">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
@@ -13178,13 +13419,13 @@
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="76">
+      <c r="B386" s="75">
         <v>63</v>
       </c>
-      <c r="C386" s="76">
+      <c r="C386" s="75">
         <v>11859</v>
       </c>
-      <c r="D386" s="76">
+      <c r="D386" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13192,13 +13433,13 @@
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="76">
+      <c r="B387" s="75">
         <v>63</v>
       </c>
-      <c r="C387" s="76">
+      <c r="C387" s="75">
         <v>11860</v>
       </c>
-      <c r="D387" s="76">
+      <c r="D387" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13206,13 +13447,13 @@
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="76">
+      <c r="B388" s="75">
         <v>63</v>
       </c>
-      <c r="C388" s="76">
+      <c r="C388" s="75">
         <v>11861</v>
       </c>
-      <c r="D388" s="76">
+      <c r="D388" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13220,13 +13461,13 @@
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="76">
+      <c r="B389" s="75">
         <v>63</v>
       </c>
-      <c r="C389" s="76">
+      <c r="C389" s="75">
         <v>11862</v>
       </c>
-      <c r="D389" s="76">
+      <c r="D389" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13234,13 +13475,13 @@
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="76">
+      <c r="B390" s="75">
         <v>63</v>
       </c>
-      <c r="C390" s="76">
+      <c r="C390" s="75">
         <v>11863</v>
       </c>
-      <c r="D390" s="76">
+      <c r="D390" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13248,13 +13489,13 @@
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="76">
+      <c r="B391" s="75">
         <v>63</v>
       </c>
-      <c r="C391" s="76">
+      <c r="C391" s="75">
         <v>11864</v>
       </c>
-      <c r="D391" s="76">
+      <c r="D391" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13262,13 +13503,13 @@
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="76">
+      <c r="B392" s="75">
         <v>64</v>
       </c>
-      <c r="C392" s="76">
+      <c r="C392" s="75">
         <v>11865</v>
       </c>
-      <c r="D392" s="76">
+      <c r="D392" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13276,13 +13517,13 @@
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="76">
+      <c r="B393" s="75">
         <v>64</v>
       </c>
-      <c r="C393" s="76">
+      <c r="C393" s="75">
         <v>11866</v>
       </c>
-      <c r="D393" s="76">
+      <c r="D393" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13290,13 +13531,13 @@
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="76">
+      <c r="B394" s="75">
         <v>64</v>
       </c>
-      <c r="C394" s="76">
+      <c r="C394" s="75">
         <v>11867</v>
       </c>
-      <c r="D394" s="76">
+      <c r="D394" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13304,13 +13545,13 @@
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="76">
+      <c r="B395" s="75">
         <v>64</v>
       </c>
-      <c r="C395" s="76">
+      <c r="C395" s="75">
         <v>11868</v>
       </c>
-      <c r="D395" s="76">
+      <c r="D395" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13318,13 +13559,13 @@
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="76">
+      <c r="B396" s="75">
         <v>64</v>
       </c>
-      <c r="C396" s="76">
+      <c r="C396" s="75">
         <v>11869</v>
       </c>
-      <c r="D396" s="76">
+      <c r="D396" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13332,13 +13573,13 @@
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="76">
+      <c r="B397" s="75">
         <v>64</v>
       </c>
-      <c r="C397" s="76">
+      <c r="C397" s="75">
         <v>11870</v>
       </c>
-      <c r="D397" s="76">
+      <c r="D397" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13346,13 +13587,13 @@
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="76">
+      <c r="B398" s="75">
         <v>65</v>
       </c>
-      <c r="C398" s="76">
+      <c r="C398" s="75">
         <v>11871</v>
       </c>
-      <c r="D398" s="76">
+      <c r="D398" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13360,13 +13601,13 @@
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="76">
+      <c r="B399" s="75">
         <v>65</v>
       </c>
-      <c r="C399" s="76">
+      <c r="C399" s="75">
         <v>11872</v>
       </c>
-      <c r="D399" s="76">
+      <c r="D399" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13374,13 +13615,13 @@
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="76">
+      <c r="B400" s="75">
         <v>65</v>
       </c>
-      <c r="C400" s="76">
+      <c r="C400" s="75">
         <v>11873</v>
       </c>
-      <c r="D400" s="76">
+      <c r="D400" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13388,13 +13629,13 @@
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="76">
+      <c r="B401" s="75">
         <v>65</v>
       </c>
-      <c r="C401" s="76">
+      <c r="C401" s="75">
         <v>11874</v>
       </c>
-      <c r="D401" s="76">
+      <c r="D401" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13402,13 +13643,13 @@
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="76">
+      <c r="B402" s="75">
         <v>65</v>
       </c>
-      <c r="C402" s="76">
+      <c r="C402" s="75">
         <v>11875</v>
       </c>
-      <c r="D402" s="76">
+      <c r="D402" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13416,13 +13657,13 @@
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="76">
+      <c r="B403" s="75">
         <v>65</v>
       </c>
-      <c r="C403" s="76">
+      <c r="C403" s="75">
         <v>11876</v>
       </c>
-      <c r="D403" s="76">
+      <c r="D403" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13430,13 +13671,13 @@
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="76">
+      <c r="B404" s="75">
         <v>66</v>
       </c>
-      <c r="C404" s="76">
+      <c r="C404" s="75">
         <v>11877</v>
       </c>
-      <c r="D404" s="76">
+      <c r="D404" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13444,13 +13685,13 @@
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="76">
+      <c r="B405" s="75">
         <v>66</v>
       </c>
-      <c r="C405" s="76">
+      <c r="C405" s="75">
         <v>11878</v>
       </c>
-      <c r="D405" s="76">
+      <c r="D405" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13458,13 +13699,13 @@
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="76">
+      <c r="B406" s="75">
         <v>66</v>
       </c>
-      <c r="C406" s="76">
+      <c r="C406" s="75">
         <v>11879</v>
       </c>
-      <c r="D406" s="76">
+      <c r="D406" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13472,13 +13713,13 @@
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="76">
+      <c r="B407" s="75">
         <v>66</v>
       </c>
-      <c r="C407" s="76">
+      <c r="C407" s="75">
         <v>11880</v>
       </c>
-      <c r="D407" s="76">
+      <c r="D407" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13486,13 +13727,13 @@
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="76">
+      <c r="B408" s="75">
         <v>66</v>
       </c>
-      <c r="C408" s="76">
+      <c r="C408" s="75">
         <v>11881</v>
       </c>
-      <c r="D408" s="76">
+      <c r="D408" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13500,13 +13741,13 @@
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="76">
+      <c r="B409" s="75">
         <v>66</v>
       </c>
-      <c r="C409" s="76">
+      <c r="C409" s="75">
         <v>11882</v>
       </c>
-      <c r="D409" s="76">
+      <c r="D409" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13514,13 +13755,13 @@
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="76">
+      <c r="B410" s="75">
         <v>67</v>
       </c>
-      <c r="C410" s="76">
+      <c r="C410" s="75">
         <v>11883</v>
       </c>
-      <c r="D410" s="76">
+      <c r="D410" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13528,13 +13769,13 @@
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="76">
+      <c r="B411" s="75">
         <v>67</v>
       </c>
-      <c r="C411" s="76">
+      <c r="C411" s="75">
         <v>11884</v>
       </c>
-      <c r="D411" s="76">
+      <c r="D411" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13542,13 +13783,13 @@
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="76">
+      <c r="B412" s="75">
         <v>67</v>
       </c>
-      <c r="C412" s="76">
+      <c r="C412" s="75">
         <v>11885</v>
       </c>
-      <c r="D412" s="76">
+      <c r="D412" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13556,13 +13797,13 @@
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="76">
+      <c r="B413" s="75">
         <v>67</v>
       </c>
-      <c r="C413" s="76">
+      <c r="C413" s="75">
         <v>11886</v>
       </c>
-      <c r="D413" s="76">
+      <c r="D413" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13570,13 +13811,13 @@
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="76">
+      <c r="B414" s="75">
         <v>67</v>
       </c>
-      <c r="C414" s="76">
+      <c r="C414" s="75">
         <v>11887</v>
       </c>
-      <c r="D414" s="76">
+      <c r="D414" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13584,13 +13825,13 @@
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="76">
+      <c r="B415" s="75">
         <v>67</v>
       </c>
-      <c r="C415" s="76">
+      <c r="C415" s="75">
         <v>11888</v>
       </c>
-      <c r="D415" s="76">
+      <c r="D415" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13598,13 +13839,13 @@
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="76">
+      <c r="B416" s="75">
         <v>68</v>
       </c>
-      <c r="C416" s="76">
+      <c r="C416" s="75">
         <v>11889</v>
       </c>
-      <c r="D416" s="76">
+      <c r="D416" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13612,13 +13853,13 @@
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="76">
+      <c r="B417" s="75">
         <v>68</v>
       </c>
-      <c r="C417" s="76">
+      <c r="C417" s="75">
         <v>11890</v>
       </c>
-      <c r="D417" s="76">
+      <c r="D417" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13626,13 +13867,13 @@
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="76">
+      <c r="B418" s="75">
         <v>68</v>
       </c>
-      <c r="C418" s="76">
+      <c r="C418" s="75">
         <v>11891</v>
       </c>
-      <c r="D418" s="76">
+      <c r="D418" s="75">
         <v>3200</v>
       </c>
     </row>
@@ -13640,13 +13881,13 @@
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="76">
+      <c r="B419" s="75">
         <v>68</v>
       </c>
-      <c r="C419" s="76">
+      <c r="C419" s="75">
         <v>11892</v>
       </c>
-      <c r="D419" s="76">
+      <c r="D419" s="75">
         <v>400</v>
       </c>
     </row>
@@ -13654,13 +13895,13 @@
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="76">
+      <c r="B420" s="75">
         <v>68</v>
       </c>
-      <c r="C420" s="76">
+      <c r="C420" s="75">
         <v>11893</v>
       </c>
-      <c r="D420" s="76">
+      <c r="D420" s="75">
         <v>0</v>
       </c>
     </row>
@@ -13668,13 +13909,97 @@
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="76">
+      <c r="B421" s="75">
         <v>68</v>
       </c>
-      <c r="C421" s="76">
+      <c r="C421" s="75">
         <v>11894</v>
       </c>
-      <c r="D421" s="76">
+      <c r="D421" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="13">
+        <v>421</v>
+      </c>
+      <c r="B422" s="39">
+        <v>69</v>
+      </c>
+      <c r="C422" s="39">
+        <v>11895</v>
+      </c>
+      <c r="D422" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="13">
+        <v>422</v>
+      </c>
+      <c r="B423" s="39">
+        <v>69</v>
+      </c>
+      <c r="C423" s="39">
+        <v>11896</v>
+      </c>
+      <c r="D423" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="13">
+        <v>423</v>
+      </c>
+      <c r="B424" s="39">
+        <v>69</v>
+      </c>
+      <c r="C424" s="39">
+        <v>11897</v>
+      </c>
+      <c r="D424" s="39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="13">
+        <v>424</v>
+      </c>
+      <c r="B425" s="39">
+        <v>69</v>
+      </c>
+      <c r="C425" s="39">
+        <v>11898</v>
+      </c>
+      <c r="D425" s="39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="13">
+        <v>425</v>
+      </c>
+      <c r="B426" s="39">
+        <v>69</v>
+      </c>
+      <c r="C426" s="39">
+        <v>11899</v>
+      </c>
+      <c r="D426" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="13">
+        <v>426</v>
+      </c>
+      <c r="B427" s="39">
+        <v>69</v>
+      </c>
+      <c r="C427" s="39">
+        <v>11900</v>
+      </c>
+      <c r="D427" s="39">
         <v>0</v>
       </c>
     </row>
@@ -13687,27 +14012,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F421"/>
+  <dimension ref="A1:F427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C400" sqref="C400"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F422" sqref="F422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="83" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="69" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -13722,10 +14047,10 @@
       <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="13">
         <v>1001</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -13736,10 +14061,10 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="13">
         <v>1002</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -13750,10 +14075,10 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="13">
         <v>1003</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -13764,10 +14089,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="13">
         <v>1004</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -13778,10 +14103,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <v>1005</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -13792,10 +14117,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="13">
         <v>1006</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -13806,10 +14131,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <v>1007</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -13820,10 +14145,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>2001</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -13834,10 +14159,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="13">
         <v>2002</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -13848,10 +14173,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>2003</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -13862,10 +14187,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="13">
         <v>2004</v>
       </c>
       <c r="D12" s="11" t="s">
@@ -13876,10 +14201,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="13">
         <v>2005</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -13890,10 +14215,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14">
+      <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <v>2006</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -13902,10 +14227,10 @@
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15">
+      <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <v>2007</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -13914,10 +14239,10 @@
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <v>2008</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -13925,10 +14250,10 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="13">
         <v>2009</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -13936,10 +14261,10 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="13">
         <v>2010</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -13947,10 +14272,10 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="13">
         <v>3001</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -13964,10 +14289,10 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="13">
         <v>3002</v>
       </c>
       <c r="C20" s="11" t="s">
@@ -13981,10 +14306,10 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="13">
         <v>3003</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -13998,10 +14323,10 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="13">
         <v>3004</v>
       </c>
       <c r="C22" s="11" t="s">
@@ -14015,10 +14340,10 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="13">
         <v>3005</v>
       </c>
       <c r="C23" s="11" t="s">
@@ -14032,10 +14357,10 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="13">
         <v>3006</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -14049,10 +14374,10 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <v>3007</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -14066,10 +14391,10 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <v>3008</v>
       </c>
       <c r="C26" s="11" t="s">
@@ -14077,10 +14402,10 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="13">
         <v>3009</v>
       </c>
       <c r="C27" s="11" t="s">
@@ -14088,10 +14413,10 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <v>3010</v>
       </c>
       <c r="C28" s="11" t="s">
@@ -14099,10 +14424,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="13">
         <v>3011</v>
       </c>
       <c r="C29" s="11" t="s">
@@ -14110,10 +14435,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="13">
         <v>3012</v>
       </c>
       <c r="C30" s="11" t="s">
@@ -14121,10 +14446,10 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="13">
         <v>3013</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -14132,10 +14457,10 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="13">
         <v>3014</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -14143,10 +14468,10 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" s="17">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="13">
         <v>3015</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -14154,10 +14479,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="13">
         <v>3016</v>
       </c>
       <c r="C34" s="11" t="s">
@@ -14165,10 +14490,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="13">
         <v>4001</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -14179,10 +14504,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" s="17">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="13">
         <v>4002</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -14193,10 +14518,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" s="17">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="13">
         <v>4003</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -14207,10 +14532,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" s="17">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="13">
         <v>5001</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -14221,10 +14546,10 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" s="17">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="13">
         <v>5002</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -14235,10 +14560,10 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="13">
         <v>5003</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -14249,10 +14574,10 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" s="17">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="13">
         <v>6001</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -14263,10 +14588,10 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="13">
         <v>6002</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -14277,10 +14602,10 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" s="17">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="13">
         <v>6003</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -14291,10 +14616,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="13">
         <v>6004</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -14305,10 +14630,10 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" s="17">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="13">
         <v>6005</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -14319,10 +14644,10 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" s="17">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="13">
         <v>6006</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -14333,10 +14658,10 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="13">
         <v>6007</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -14347,10 +14672,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
+      <c r="A48" s="17">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="13">
         <v>6008</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -14361,10 +14686,10 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
+      <c r="A49" s="17">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="13">
         <v>6009</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -14375,10 +14700,10 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="13">
         <v>7001</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -14389,10 +14714,10 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
+      <c r="A51" s="17">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="13">
         <v>7002</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -14403,10 +14728,10 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
+      <c r="A52" s="17">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="13">
         <v>7003</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -14417,10 +14742,10 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="13">
         <v>7004</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -14431,10 +14756,10 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="13">
         <v>7005</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -14445,10 +14770,10 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="13">
         <v>7006</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -14459,10 +14784,10 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="13">
         <v>7007</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -14473,10 +14798,10 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
+      <c r="A57" s="17">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="13">
         <v>7008</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -14484,10 +14809,10 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="13">
         <v>7009</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -14495,10 +14820,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
+      <c r="A59" s="17">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="13">
         <v>7010</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -14506,10 +14831,10 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60">
+      <c r="A60" s="17">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="13">
         <v>7001</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -14520,10 +14845,10 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
+      <c r="A61" s="17">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="13">
         <v>7002</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -14534,10 +14859,10 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
+      <c r="A62" s="17">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="13">
         <v>7003</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -14548,10 +14873,10 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63">
+      <c r="A63" s="17">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="13">
         <v>7004</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -14562,10 +14887,10 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64">
+      <c r="A64" s="17">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="13">
         <v>7005</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -14576,10 +14901,10 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65">
+      <c r="A65" s="17">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="13">
         <v>7006</v>
       </c>
       <c r="D65" s="11" t="s">
@@ -14590,10 +14915,10 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66">
+      <c r="A66" s="17">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="13">
         <v>7007</v>
       </c>
       <c r="D66" s="11" t="s">
@@ -14604,10 +14929,10 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67">
+      <c r="A67" s="17">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="13">
         <v>7008</v>
       </c>
       <c r="C67" s="11" t="s">
@@ -14615,10 +14940,10 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68">
+      <c r="A68" s="17">
         <v>67</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="13">
         <v>7009</v>
       </c>
       <c r="C68" s="11" t="s">
@@ -14626,10 +14951,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69">
+      <c r="A69" s="17">
         <v>68</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="13">
         <v>7010</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -14637,10 +14962,10 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70">
+      <c r="A70" s="17">
         <v>69</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="13">
         <v>7001</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -14651,10 +14976,10 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71">
+      <c r="A71" s="17">
         <v>70</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="13">
         <v>7002</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -14665,10 +14990,10 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72">
+      <c r="A72" s="17">
         <v>71</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="13">
         <v>7003</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -14679,10 +15004,10 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="13">
         <v>7004</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -14693,10 +15018,10 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74">
+      <c r="A74" s="17">
         <v>73</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="13">
         <v>7005</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -14707,10 +15032,10 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75">
+      <c r="A75" s="17">
         <v>74</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="13">
         <v>7006</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -14721,10 +15046,10 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76">
+      <c r="A76" s="17">
         <v>75</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="13">
         <v>7007</v>
       </c>
       <c r="D76" s="11" t="s">
@@ -14735,10 +15060,10 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77">
+      <c r="A77" s="17">
         <v>76</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="13">
         <v>7008</v>
       </c>
       <c r="C77" s="11" t="s">
@@ -14746,10 +15071,10 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78">
+      <c r="A78" s="17">
         <v>77</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="13">
         <v>7009</v>
       </c>
       <c r="C78" s="11" t="s">
@@ -14757,10 +15082,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79">
+      <c r="A79" s="17">
         <v>78</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="13">
         <v>7010</v>
       </c>
       <c r="C79" s="11" t="s">
@@ -14768,10 +15093,10 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80">
+      <c r="A80" s="17">
         <v>79</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="13">
         <v>7001</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -14782,10 +15107,10 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81">
+      <c r="A81" s="17">
         <v>80</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="13">
         <v>7002</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -14796,10 +15121,10 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82">
+      <c r="A82" s="17">
         <v>81</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="13">
         <v>7003</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -14810,10 +15135,10 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83">
+      <c r="A83" s="17">
         <v>82</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="13">
         <v>7004</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -14824,10 +15149,10 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84">
+      <c r="A84" s="17">
         <v>83</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="13">
         <v>7005</v>
       </c>
       <c r="D84" s="11" t="s">
@@ -14838,10 +15163,10 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85">
+      <c r="A85" s="17">
         <v>84</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="13">
         <v>7006</v>
       </c>
       <c r="D85" s="11" t="s">
@@ -14852,10 +15177,10 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86">
+      <c r="A86" s="17">
         <v>85</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="13">
         <v>7007</v>
       </c>
       <c r="D86" s="11" t="s">
@@ -14866,10 +15191,10 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87">
+      <c r="A87" s="17">
         <v>86</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="13">
         <v>7008</v>
       </c>
       <c r="C87" s="11" t="s">
@@ -14877,10 +15202,10 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88">
+      <c r="A88" s="17">
         <v>87</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="13">
         <v>7009</v>
       </c>
       <c r="C88" s="11" t="s">
@@ -14888,10 +15213,10 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89">
+      <c r="A89" s="17">
         <v>88</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="13">
         <v>7010</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -14899,7 +15224,7 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90">
+      <c r="A90" s="17">
         <v>89</v>
       </c>
       <c r="B90" s="13">
@@ -14914,7 +15239,7 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91">
+      <c r="A91" s="17">
         <v>90</v>
       </c>
       <c r="B91" s="13">
@@ -14929,7 +15254,7 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92">
+      <c r="A92" s="17">
         <v>91</v>
       </c>
       <c r="B92" s="13">
@@ -14944,7 +15269,7 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93">
+      <c r="A93" s="17">
         <v>92</v>
       </c>
       <c r="B93" s="13">
@@ -14959,7 +15284,7 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94">
+      <c r="A94" s="17">
         <v>93</v>
       </c>
       <c r="B94" s="13">
@@ -14974,7 +15299,7 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95">
+      <c r="A95" s="17">
         <v>94</v>
       </c>
       <c r="B95" s="13">
@@ -14989,7 +15314,7 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96">
+      <c r="A96" s="17">
         <v>95</v>
       </c>
       <c r="B96" s="13">
@@ -15004,7 +15329,7 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97">
+      <c r="A97" s="17">
         <v>96</v>
       </c>
       <c r="B97" s="13">
@@ -15019,7 +15344,7 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98">
+      <c r="A98" s="17">
         <v>97</v>
       </c>
       <c r="B98" s="13">
@@ -15034,7 +15359,7 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99">
+      <c r="A99" s="17">
         <v>98</v>
       </c>
       <c r="B99" s="13">
@@ -15049,7 +15374,7 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100">
+      <c r="A100" s="17">
         <v>99</v>
       </c>
       <c r="B100" s="13">
@@ -15064,7 +15389,7 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101">
+      <c r="A101" s="17">
         <v>100</v>
       </c>
       <c r="B101" s="13">
@@ -15079,7 +15404,7 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102">
+      <c r="A102" s="17">
         <v>101</v>
       </c>
       <c r="B102" s="13">
@@ -15094,7 +15419,7 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103">
+      <c r="A103" s="17">
         <v>102</v>
       </c>
       <c r="B103" s="13">
@@ -15107,7 +15432,7 @@
       <c r="E103" s="33"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104">
+      <c r="A104" s="17">
         <v>103</v>
       </c>
       <c r="B104" s="13">
@@ -15120,7 +15445,7 @@
       <c r="E104" s="33"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105">
+      <c r="A105" s="17">
         <v>104</v>
       </c>
       <c r="B105" s="13">
@@ -15135,7 +15460,7 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106">
+      <c r="A106" s="17">
         <v>105</v>
       </c>
       <c r="B106" s="13">
@@ -15150,7 +15475,7 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107">
+      <c r="A107" s="17">
         <v>106</v>
       </c>
       <c r="B107" s="13">
@@ -15163,7 +15488,7 @@
       <c r="E107" s="33"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108">
+      <c r="A108" s="17">
         <v>107</v>
       </c>
       <c r="B108" s="13">
@@ -15176,10 +15501,10 @@
       <c r="E108" s="33"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109">
+      <c r="A109" s="17">
         <v>108</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109" s="13">
         <v>9001</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -15190,10 +15515,10 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110">
+      <c r="A110" s="17">
         <v>109</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="13">
         <v>9002</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -15204,10 +15529,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111">
+      <c r="A111" s="17">
         <v>110</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="13">
         <v>9003</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -15218,10 +15543,10 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112">
+      <c r="A112" s="17">
         <v>111</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="13">
         <v>9004</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -15232,10 +15557,10 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113">
+      <c r="A113" s="17">
         <v>112</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="13">
         <v>9005</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -15246,10 +15571,10 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114">
+      <c r="A114" s="17">
         <v>113</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="13">
         <v>9006</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -15260,10 +15585,10 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115">
+      <c r="A115" s="17">
         <v>114</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="13">
         <v>9007</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -15274,10 +15599,10 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116">
+      <c r="A116" s="17">
         <v>115</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="13">
         <v>9008</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -15288,10 +15613,10 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117">
+      <c r="A117" s="17">
         <v>116</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117" s="13">
         <v>9009</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -15302,10 +15627,10 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118">
+      <c r="A118" s="17">
         <v>117</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="13">
         <v>9010</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -15316,10 +15641,10 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119">
+      <c r="A119" s="17">
         <v>118</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119" s="13">
         <v>9011</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -15330,10 +15655,10 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120">
+      <c r="A120" s="17">
         <v>119</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120" s="13">
         <v>9012</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -15344,7 +15669,7 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121">
+      <c r="A121" s="17">
         <v>120</v>
       </c>
       <c r="B121" s="13">
@@ -15359,7 +15684,7 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122">
+      <c r="A122" s="17">
         <v>121</v>
       </c>
       <c r="B122" s="13">
@@ -15374,7 +15699,7 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123">
+      <c r="A123" s="17">
         <v>122</v>
       </c>
       <c r="B123" s="13">
@@ -15389,7 +15714,7 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124">
+      <c r="A124" s="17">
         <v>123</v>
       </c>
       <c r="B124" s="13">
@@ -15404,7 +15729,7 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125">
+      <c r="A125" s="17">
         <v>124</v>
       </c>
       <c r="B125" s="13">
@@ -15419,7 +15744,7 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126">
+      <c r="A126" s="17">
         <v>125</v>
       </c>
       <c r="B126" s="13">
@@ -15434,7 +15759,7 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127">
+      <c r="A127" s="17">
         <v>126</v>
       </c>
       <c r="B127" s="13">
@@ -15449,7 +15774,7 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128">
+      <c r="A128" s="17">
         <v>127</v>
       </c>
       <c r="B128" s="13">
@@ -15462,7 +15787,7 @@
       <c r="E128" s="16"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129">
+      <c r="A129" s="17">
         <v>128</v>
       </c>
       <c r="B129" s="13">
@@ -15475,7 +15800,7 @@
       <c r="E129" s="16"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130">
+      <c r="A130" s="17">
         <v>129</v>
       </c>
       <c r="B130" s="13">
@@ -15488,7 +15813,7 @@
       <c r="E130" s="16"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131">
+      <c r="A131" s="17">
         <v>130</v>
       </c>
       <c r="B131" s="13">
@@ -15505,7 +15830,7 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132">
+      <c r="A132" s="17">
         <v>131</v>
       </c>
       <c r="B132" s="13">
@@ -15522,7 +15847,7 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133">
+      <c r="A133" s="17">
         <v>132</v>
       </c>
       <c r="B133" s="13">
@@ -15539,7 +15864,7 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134">
+      <c r="A134" s="17">
         <v>133</v>
       </c>
       <c r="B134" s="13">
@@ -15556,7 +15881,7 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135">
+      <c r="A135" s="17">
         <v>134</v>
       </c>
       <c r="B135" s="13">
@@ -15573,7 +15898,7 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136">
+      <c r="A136" s="17">
         <v>135</v>
       </c>
       <c r="B136" s="13">
@@ -15590,7 +15915,7 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137">
+      <c r="A137" s="17">
         <v>136</v>
       </c>
       <c r="B137" s="13">
@@ -15607,7 +15932,7 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138">
+      <c r="A138" s="17">
         <v>137</v>
       </c>
       <c r="B138" s="13">
@@ -15624,7 +15949,7 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139">
+      <c r="A139" s="17">
         <v>138</v>
       </c>
       <c r="B139" s="13">
@@ -15637,7 +15962,7 @@
       <c r="E139" s="21"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140">
+      <c r="A140" s="17">
         <v>139</v>
       </c>
       <c r="B140" s="13">
@@ -15650,7 +15975,7 @@
       <c r="E140" s="21"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141">
+      <c r="A141" s="17">
         <v>140</v>
       </c>
       <c r="B141" s="13">
@@ -15667,7 +15992,7 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142">
+      <c r="A142" s="17">
         <v>141</v>
       </c>
       <c r="B142" s="13">
@@ -15684,7 +16009,7 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143">
+      <c r="A143" s="17">
         <v>142</v>
       </c>
       <c r="B143" s="13">
@@ -15697,7 +16022,7 @@
       <c r="E143" s="21"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144">
+      <c r="A144" s="17">
         <v>143</v>
       </c>
       <c r="B144" s="13">
@@ -15710,7 +16035,7 @@
       <c r="E144" s="21"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145">
+      <c r="A145" s="17">
         <v>144</v>
       </c>
       <c r="B145" s="13">
@@ -15723,7 +16048,7 @@
       <c r="E145" s="21"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146">
+      <c r="A146" s="17">
         <v>145</v>
       </c>
       <c r="B146" s="13">
@@ -15740,7 +16065,7 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147">
+      <c r="A147" s="17">
         <v>146</v>
       </c>
       <c r="B147" s="13">
@@ -15757,7 +16082,7 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148">
+      <c r="A148" s="17">
         <v>147</v>
       </c>
       <c r="B148" s="13">
@@ -15774,7 +16099,7 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149">
+      <c r="A149" s="17">
         <v>148</v>
       </c>
       <c r="B149" s="13">
@@ -15791,7 +16116,7 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150">
+      <c r="A150" s="17">
         <v>149</v>
       </c>
       <c r="B150" s="13">
@@ -15808,7 +16133,7 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151">
+      <c r="A151" s="17">
         <v>150</v>
       </c>
       <c r="B151" s="13">
@@ -15825,7 +16150,7 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152">
+      <c r="A152" s="17">
         <v>151</v>
       </c>
       <c r="B152" s="13">
@@ -15842,7 +16167,7 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153">
+      <c r="A153" s="17">
         <v>152</v>
       </c>
       <c r="B153" s="13">
@@ -15859,7 +16184,7 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154">
+      <c r="A154" s="17">
         <v>153</v>
       </c>
       <c r="B154" s="13">
@@ -15872,7 +16197,7 @@
       <c r="E154" s="21"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155">
+      <c r="A155" s="17">
         <v>154</v>
       </c>
       <c r="B155" s="13">
@@ -15889,7 +16214,7 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156">
+      <c r="A156" s="17">
         <v>155</v>
       </c>
       <c r="B156" s="13">
@@ -15906,7 +16231,7 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157">
+      <c r="A157" s="17">
         <v>156</v>
       </c>
       <c r="B157" s="13">
@@ -15923,7 +16248,7 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158">
+      <c r="A158" s="17">
         <v>157</v>
       </c>
       <c r="B158" s="13">
@@ -15940,7 +16265,7 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159">
+      <c r="A159" s="17">
         <v>158</v>
       </c>
       <c r="B159" s="13">
@@ -15957,7 +16282,7 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160">
+      <c r="A160" s="17">
         <v>159</v>
       </c>
       <c r="B160" s="13">
@@ -15974,7 +16299,7 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161">
+      <c r="A161" s="17">
         <v>160</v>
       </c>
       <c r="B161" s="13">
@@ -15987,7 +16312,7 @@
       <c r="E161" s="21"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162">
+      <c r="A162" s="17">
         <v>161</v>
       </c>
       <c r="B162" s="13">
@@ -16000,7 +16325,7 @@
       <c r="E162" s="21"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163">
+      <c r="A163" s="17">
         <v>162</v>
       </c>
       <c r="B163" s="13">
@@ -16017,7 +16342,7 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164">
+      <c r="A164" s="17">
         <v>163</v>
       </c>
       <c r="B164" s="13">
@@ -16030,7 +16355,7 @@
       <c r="E164" s="21"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165">
+      <c r="A165" s="17">
         <v>164</v>
       </c>
       <c r="B165" s="13">
@@ -16043,7 +16368,7 @@
       <c r="E165" s="21"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166">
+      <c r="A166" s="17">
         <v>165</v>
       </c>
       <c r="B166" s="13">
@@ -16056,7 +16381,7 @@
       <c r="E166" s="21"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167">
+      <c r="A167" s="17">
         <v>166</v>
       </c>
       <c r="B167" s="13">
@@ -16073,7 +16398,7 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168">
+      <c r="A168" s="17">
         <v>167</v>
       </c>
       <c r="B168" s="13">
@@ -16086,7 +16411,7 @@
       <c r="E168" s="21"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169">
+      <c r="A169" s="17">
         <v>168</v>
       </c>
       <c r="B169" s="13">
@@ -16103,7 +16428,7 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170">
+      <c r="A170" s="17">
         <v>169</v>
       </c>
       <c r="B170" s="13">
@@ -16120,7 +16445,7 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171">
+      <c r="A171" s="17">
         <v>170</v>
       </c>
       <c r="B171" s="13">
@@ -16137,7 +16462,7 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172">
+      <c r="A172" s="17">
         <v>171</v>
       </c>
       <c r="B172" s="13">
@@ -16154,7 +16479,7 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173">
+      <c r="A173" s="17">
         <v>172</v>
       </c>
       <c r="B173" s="13">
@@ -16171,7 +16496,7 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174">
+      <c r="A174" s="17">
         <v>173</v>
       </c>
       <c r="B174" s="13">
@@ -16188,7 +16513,7 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175">
+      <c r="A175" s="17">
         <v>174</v>
       </c>
       <c r="B175" s="13">
@@ -16205,7 +16530,7 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176">
+      <c r="A176" s="17">
         <v>175</v>
       </c>
       <c r="B176" s="13">
@@ -16222,7 +16547,7 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177">
+      <c r="A177" s="17">
         <v>176</v>
       </c>
       <c r="B177" s="13">
@@ -16239,7 +16564,7 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178">
+      <c r="A178" s="17">
         <v>177</v>
       </c>
       <c r="B178" s="13">
@@ -16256,7 +16581,7 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179">
+      <c r="A179" s="17">
         <v>178</v>
       </c>
       <c r="B179" s="13">
@@ -16273,7 +16598,7 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180">
+      <c r="A180" s="17">
         <v>179</v>
       </c>
       <c r="B180" s="13">
@@ -16290,7 +16615,7 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181">
+      <c r="A181" s="17">
         <v>180</v>
       </c>
       <c r="B181" s="13">
@@ -16307,7 +16632,7 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182">
+      <c r="A182" s="17">
         <v>181</v>
       </c>
       <c r="B182" s="13">
@@ -16324,7 +16649,7 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183">
+      <c r="A183" s="17">
         <v>182</v>
       </c>
       <c r="B183" s="13">
@@ -16341,7 +16666,7 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184">
+      <c r="A184" s="17">
         <v>183</v>
       </c>
       <c r="B184" s="13">
@@ -16358,7 +16683,7 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185">
+      <c r="A185" s="17">
         <v>184</v>
       </c>
       <c r="B185" s="13">
@@ -16375,7 +16700,7 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186">
+      <c r="A186" s="17">
         <v>185</v>
       </c>
       <c r="B186" s="13">
@@ -16392,7 +16717,7 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187">
+      <c r="A187" s="17">
         <v>186</v>
       </c>
       <c r="B187" s="13">
@@ -16409,7 +16734,7 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188">
+      <c r="A188" s="17">
         <v>187</v>
       </c>
       <c r="B188" s="13">
@@ -16426,7 +16751,7 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189">
+      <c r="A189" s="17">
         <v>188</v>
       </c>
       <c r="B189" s="13">
@@ -16443,7 +16768,7 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190">
+      <c r="A190" s="17">
         <v>189</v>
       </c>
       <c r="B190" s="13">
@@ -16460,7 +16785,7 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191">
+      <c r="A191" s="17">
         <v>190</v>
       </c>
       <c r="B191" s="13">
@@ -16477,7 +16802,7 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192">
+      <c r="A192" s="17">
         <v>191</v>
       </c>
       <c r="B192" s="13">
@@ -16494,7 +16819,7 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193">
+      <c r="A193" s="17">
         <v>192</v>
       </c>
       <c r="B193" s="13">
@@ -16511,7 +16836,7 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194">
+      <c r="A194" s="17">
         <v>193</v>
       </c>
       <c r="B194" s="13">
@@ -16528,7 +16853,7 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195">
+      <c r="A195" s="17">
         <v>194</v>
       </c>
       <c r="B195" s="13">
@@ -16545,7 +16870,7 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196">
+      <c r="A196" s="17">
         <v>195</v>
       </c>
       <c r="B196" s="13">
@@ -16562,7 +16887,7 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197">
+      <c r="A197" s="17">
         <v>196</v>
       </c>
       <c r="B197" s="13">
@@ -16579,7 +16904,7 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198">
+      <c r="A198" s="17">
         <v>197</v>
       </c>
       <c r="B198" s="13">
@@ -16596,7 +16921,7 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199">
+      <c r="A199" s="17">
         <v>198</v>
       </c>
       <c r="B199" s="13">
@@ -16613,7 +16938,7 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200">
+      <c r="A200" s="17">
         <v>199</v>
       </c>
       <c r="B200" s="13">
@@ -16630,7 +16955,7 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201">
+      <c r="A201" s="17">
         <v>200</v>
       </c>
       <c r="B201" s="13">
@@ -16647,7 +16972,7 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202">
+      <c r="A202" s="17">
         <v>201</v>
       </c>
       <c r="B202" s="13">
@@ -16664,7 +16989,7 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203">
+      <c r="A203" s="17">
         <v>202</v>
       </c>
       <c r="B203" s="13">
@@ -16681,7 +17006,7 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204">
+      <c r="A204" s="17">
         <v>203</v>
       </c>
       <c r="B204" s="13">
@@ -16698,7 +17023,7 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205">
+      <c r="A205" s="17">
         <v>204</v>
       </c>
       <c r="B205" s="13">
@@ -16715,7 +17040,7 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206">
+      <c r="A206" s="17">
         <v>205</v>
       </c>
       <c r="B206" s="13">
@@ -16732,7 +17057,7 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207">
+      <c r="A207" s="17">
         <v>206</v>
       </c>
       <c r="B207" s="13">
@@ -16749,7 +17074,7 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208">
+      <c r="A208" s="17">
         <v>207</v>
       </c>
       <c r="B208" s="13">
@@ -16766,7 +17091,7 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209">
+      <c r="A209" s="17">
         <v>208</v>
       </c>
       <c r="B209" s="13">
@@ -16783,7 +17108,7 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210">
+      <c r="A210" s="17">
         <v>209</v>
       </c>
       <c r="B210" s="13">
@@ -16800,7 +17125,7 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211">
+      <c r="A211" s="17">
         <v>210</v>
       </c>
       <c r="B211" s="13">
@@ -16817,7 +17142,7 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212">
+      <c r="A212" s="17">
         <v>211</v>
       </c>
       <c r="B212" s="13">
@@ -16834,7 +17159,7 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213">
+      <c r="A213" s="17">
         <v>212</v>
       </c>
       <c r="B213" s="13">
@@ -16851,7 +17176,7 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214">
+      <c r="A214" s="17">
         <v>213</v>
       </c>
       <c r="B214" s="13">
@@ -16868,7 +17193,7 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215">
+      <c r="A215" s="17">
         <v>214</v>
       </c>
       <c r="B215" s="13">
@@ -16885,7 +17210,7 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216">
+      <c r="A216" s="17">
         <v>215</v>
       </c>
       <c r="B216" s="13">
@@ -16902,7 +17227,7 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217">
+      <c r="A217" s="17">
         <v>216</v>
       </c>
       <c r="B217" s="13">
@@ -16919,7 +17244,7 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218">
+      <c r="A218" s="17">
         <v>217</v>
       </c>
       <c r="B218" s="13">
@@ -16936,7 +17261,7 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219">
+      <c r="A219" s="17">
         <v>218</v>
       </c>
       <c r="B219" s="13">
@@ -16953,7 +17278,7 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220">
+      <c r="A220" s="17">
         <v>219</v>
       </c>
       <c r="B220" s="13">
@@ -16970,10 +17295,10 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221">
+      <c r="A221" s="17">
         <v>220</v>
       </c>
-      <c r="B221" s="23">
+      <c r="B221" s="13">
         <v>11601</v>
       </c>
       <c r="C221" s="24" t="s">
@@ -16987,10 +17312,10 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222">
+      <c r="A222" s="17">
         <v>221</v>
       </c>
-      <c r="B222" s="23">
+      <c r="B222" s="13">
         <v>11602</v>
       </c>
       <c r="C222" s="24" t="s">
@@ -17004,10 +17329,10 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223">
+      <c r="A223" s="17">
         <v>222</v>
       </c>
-      <c r="B223" s="23">
+      <c r="B223" s="13">
         <v>11603</v>
       </c>
       <c r="C223" s="24" t="s">
@@ -17021,10 +17346,10 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224">
+      <c r="A224" s="17">
         <v>223</v>
       </c>
-      <c r="B224" s="23">
+      <c r="B224" s="13">
         <v>11604</v>
       </c>
       <c r="C224" s="24" t="s">
@@ -17038,10 +17363,10 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225">
+      <c r="A225" s="17">
         <v>224</v>
       </c>
-      <c r="B225" s="23">
+      <c r="B225" s="13">
         <v>11611</v>
       </c>
       <c r="C225" s="24" t="s">
@@ -17055,10 +17380,10 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226">
+      <c r="A226" s="17">
         <v>225</v>
       </c>
-      <c r="B226" s="23">
+      <c r="B226" s="13">
         <v>11612</v>
       </c>
       <c r="C226" s="24" t="s">
@@ -17072,10 +17397,10 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227">
+      <c r="A227" s="17">
         <v>226</v>
       </c>
-      <c r="B227" s="23">
+      <c r="B227" s="13">
         <v>11613</v>
       </c>
       <c r="C227" s="24" t="s">
@@ -17089,10 +17414,10 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228">
+      <c r="A228" s="17">
         <v>227</v>
       </c>
-      <c r="B228" s="23">
+      <c r="B228" s="13">
         <v>11614</v>
       </c>
       <c r="C228" s="24" t="s">
@@ -17106,10 +17431,10 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229">
+      <c r="A229" s="17">
         <v>228</v>
       </c>
-      <c r="B229" s="23">
+      <c r="B229" s="13">
         <v>11621</v>
       </c>
       <c r="C229" s="24" t="s">
@@ -17123,10 +17448,10 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230">
+      <c r="A230" s="17">
         <v>229</v>
       </c>
-      <c r="B230" s="23">
+      <c r="B230" s="13">
         <v>11622</v>
       </c>
       <c r="C230" s="24" t="s">
@@ -17140,10 +17465,10 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231">
+      <c r="A231" s="17">
         <v>230</v>
       </c>
-      <c r="B231" s="23">
+      <c r="B231" s="13">
         <v>11623</v>
       </c>
       <c r="C231" s="24" t="s">
@@ -17157,10 +17482,10 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232">
+      <c r="A232" s="17">
         <v>231</v>
       </c>
-      <c r="B232" s="23">
+      <c r="B232" s="13">
         <v>11624</v>
       </c>
       <c r="C232" s="24" t="s">
@@ -17174,10 +17499,10 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233">
+      <c r="A233" s="17">
         <v>232</v>
       </c>
-      <c r="B233" s="23">
+      <c r="B233" s="13">
         <v>11631</v>
       </c>
       <c r="C233" s="24" t="s">
@@ -17191,10 +17516,10 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234">
+      <c r="A234" s="17">
         <v>233</v>
       </c>
-      <c r="B234" s="23">
+      <c r="B234" s="13">
         <v>11632</v>
       </c>
       <c r="C234" s="24" t="s">
@@ -17208,10 +17533,10 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235">
+      <c r="A235" s="17">
         <v>234</v>
       </c>
-      <c r="B235" s="23">
+      <c r="B235" s="13">
         <v>11633</v>
       </c>
       <c r="C235" s="24" t="s">
@@ -17225,10 +17550,10 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236">
+      <c r="A236" s="17">
         <v>235</v>
       </c>
-      <c r="B236" s="23">
+      <c r="B236" s="13">
         <v>11634</v>
       </c>
       <c r="C236" s="24" t="s">
@@ -17242,10 +17567,10 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237">
+      <c r="A237" s="17">
         <v>236</v>
       </c>
-      <c r="B237" s="23">
+      <c r="B237" s="13">
         <v>11641</v>
       </c>
       <c r="C237" s="24" t="s">
@@ -17259,10 +17584,10 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238">
+      <c r="A238" s="17">
         <v>237</v>
       </c>
-      <c r="B238" s="23">
+      <c r="B238" s="13">
         <v>11642</v>
       </c>
       <c r="C238" s="24" t="s">
@@ -17276,10 +17601,10 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239">
+      <c r="A239" s="17">
         <v>238</v>
       </c>
-      <c r="B239" s="23">
+      <c r="B239" s="13">
         <v>11643</v>
       </c>
       <c r="C239" s="24" t="s">
@@ -17293,10 +17618,10 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240">
+      <c r="A240" s="17">
         <v>239</v>
       </c>
-      <c r="B240" s="23">
+      <c r="B240" s="13">
         <v>11644</v>
       </c>
       <c r="C240" s="24" t="s">
@@ -17310,10 +17635,10 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241">
+      <c r="A241" s="17">
         <v>240</v>
       </c>
-      <c r="B241" s="23">
+      <c r="B241" s="13">
         <v>11651</v>
       </c>
       <c r="C241" s="24" t="s">
@@ -17327,10 +17652,10 @@
       </c>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242">
+      <c r="A242" s="17">
         <v>241</v>
       </c>
-      <c r="B242" s="23">
+      <c r="B242" s="13">
         <v>11652</v>
       </c>
       <c r="C242" s="24" t="s">
@@ -17344,10 +17669,10 @@
       </c>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243">
+      <c r="A243" s="17">
         <v>242</v>
       </c>
-      <c r="B243" s="23">
+      <c r="B243" s="13">
         <v>11653</v>
       </c>
       <c r="C243" s="24" t="s">
@@ -17361,10 +17686,10 @@
       </c>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244">
+      <c r="A244" s="17">
         <v>243</v>
       </c>
-      <c r="B244" s="23">
+      <c r="B244" s="13">
         <v>11654</v>
       </c>
       <c r="C244" s="24" t="s">
@@ -17378,10 +17703,10 @@
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245">
+      <c r="A245" s="17">
         <v>244</v>
       </c>
-      <c r="B245" s="23">
+      <c r="B245" s="13">
         <v>11661</v>
       </c>
       <c r="C245" s="24" t="s">
@@ -17395,10 +17720,10 @@
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246">
+      <c r="A246" s="17">
         <v>245</v>
       </c>
-      <c r="B246" s="23">
+      <c r="B246" s="13">
         <v>11662</v>
       </c>
       <c r="C246" s="24" t="s">
@@ -17412,10 +17737,10 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247">
+      <c r="A247" s="17">
         <v>246</v>
       </c>
-      <c r="B247" s="23">
+      <c r="B247" s="13">
         <v>11663</v>
       </c>
       <c r="C247" s="24" t="s">
@@ -17429,10 +17754,10 @@
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248">
+      <c r="A248" s="17">
         <v>247</v>
       </c>
-      <c r="B248" s="23">
+      <c r="B248" s="13">
         <v>11664</v>
       </c>
       <c r="C248" s="24" t="s">
@@ -17446,10 +17771,10 @@
       </c>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249">
+      <c r="A249" s="17">
         <v>248</v>
       </c>
-      <c r="B249" s="23">
+      <c r="B249" s="13">
         <v>11671</v>
       </c>
       <c r="C249" s="24" t="s">
@@ -17463,10 +17788,10 @@
       </c>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250">
+      <c r="A250" s="17">
         <v>249</v>
       </c>
-      <c r="B250" s="23">
+      <c r="B250" s="13">
         <v>11672</v>
       </c>
       <c r="C250" s="24" t="s">
@@ -17480,10 +17805,10 @@
       </c>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251">
+      <c r="A251" s="17">
         <v>250</v>
       </c>
-      <c r="B251" s="23">
+      <c r="B251" s="13">
         <v>11673</v>
       </c>
       <c r="C251" s="24" t="s">
@@ -17497,10 +17822,10 @@
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252">
+      <c r="A252" s="17">
         <v>251</v>
       </c>
-      <c r="B252" s="23">
+      <c r="B252" s="13">
         <v>11674</v>
       </c>
       <c r="C252" s="24" t="s">
@@ -17514,10 +17839,10 @@
       </c>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253">
+      <c r="A253" s="17">
         <v>252</v>
       </c>
-      <c r="B253" s="23">
+      <c r="B253" s="13">
         <v>11681</v>
       </c>
       <c r="C253" s="24" t="s">
@@ -17531,10 +17856,10 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254">
+      <c r="A254" s="17">
         <v>253</v>
       </c>
-      <c r="B254" s="23">
+      <c r="B254" s="13">
         <v>11682</v>
       </c>
       <c r="C254" s="24" t="s">
@@ -17548,10 +17873,10 @@
       </c>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255">
+      <c r="A255" s="17">
         <v>254</v>
       </c>
-      <c r="B255" s="23">
+      <c r="B255" s="13">
         <v>11683</v>
       </c>
       <c r="C255" s="24" t="s">
@@ -17565,10 +17890,10 @@
       </c>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256">
+      <c r="A256" s="17">
         <v>255</v>
       </c>
-      <c r="B256" s="23">
+      <c r="B256" s="13">
         <v>11684</v>
       </c>
       <c r="C256" s="24" t="s">
@@ -17582,466 +17907,466 @@
       </c>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="36">
+      <c r="A257" s="17">
         <v>256</v>
       </c>
-      <c r="B257" s="35">
+      <c r="B257" s="13">
         <v>11701</v>
       </c>
       <c r="C257" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="D257" s="37" t="s">
+      <c r="D257" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E257" s="38" t="s">
+      <c r="E257" s="37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="36">
+      <c r="A258" s="17">
         <v>257</v>
       </c>
-      <c r="B258" s="35">
+      <c r="B258" s="13">
         <v>11702</v>
       </c>
       <c r="C258" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="D258" s="37" t="s">
+      <c r="D258" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E258" s="38" t="s">
+      <c r="E258" s="37" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="36">
+      <c r="A259" s="17">
         <v>258</v>
       </c>
-      <c r="B259" s="35">
+      <c r="B259" s="13">
         <v>11703</v>
       </c>
       <c r="C259" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="D259" s="37" t="s">
+      <c r="D259" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E259" s="38" t="s">
+      <c r="E259" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="36">
+      <c r="A260" s="17">
         <v>259</v>
       </c>
-      <c r="B260" s="35">
+      <c r="B260" s="13">
         <v>11704</v>
       </c>
       <c r="C260" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="D260" s="37" t="s">
+      <c r="D260" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E260" s="38" t="s">
+      <c r="E260" s="37" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="36">
+      <c r="A261" s="17">
         <v>260</v>
       </c>
-      <c r="B261" s="35">
+      <c r="B261" s="13">
         <v>11705</v>
       </c>
       <c r="C261" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="D261" s="37" t="s">
+      <c r="D261" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E261" s="38" t="s">
+      <c r="E261" s="37" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="36">
+      <c r="A262" s="17">
         <v>261</v>
       </c>
-      <c r="B262" s="35">
+      <c r="B262" s="13">
         <v>11706</v>
       </c>
       <c r="C262" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D262" s="37" t="s">
+      <c r="D262" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E262" s="38" t="s">
+      <c r="E262" s="37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="36">
+      <c r="A263" s="17">
         <v>262</v>
       </c>
-      <c r="B263" s="35">
+      <c r="B263" s="13">
         <v>11707</v>
       </c>
       <c r="C263" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="D263" s="37" t="s">
+      <c r="D263" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E263" s="38" t="s">
+      <c r="E263" s="37" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="36">
+      <c r="A264" s="17">
         <v>263</v>
       </c>
-      <c r="B264" s="35">
+      <c r="B264" s="13">
         <v>11708</v>
       </c>
       <c r="C264" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="D264" s="37" t="s">
+      <c r="D264" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E264" s="38" t="s">
+      <c r="E264" s="37" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="36">
+      <c r="A265" s="17">
         <v>264</v>
       </c>
-      <c r="B265" s="35">
+      <c r="B265" s="13">
         <v>11709</v>
       </c>
       <c r="C265" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="D265" s="37" t="s">
+      <c r="D265" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="38" t="s">
+      <c r="E265" s="37" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="39">
+      <c r="A266" s="17">
         <v>265</v>
       </c>
-      <c r="B266" s="40">
+      <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="41" t="s">
+      <c r="C266" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="41" t="s">
+      <c r="D266" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="42" t="s">
+      <c r="E266" s="41" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="39">
+      <c r="A267" s="17">
         <v>266</v>
       </c>
-      <c r="B267" s="40">
+      <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="41" t="s">
+      <c r="C267" s="40" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="41" t="s">
+      <c r="D267" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="42" t="s">
+      <c r="E267" s="41" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="39">
+      <c r="A268" s="17">
         <v>267</v>
       </c>
-      <c r="B268" s="40">
+      <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="41" t="s">
+      <c r="C268" s="40" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="41" t="s">
+      <c r="D268" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="42" t="s">
+      <c r="E268" s="41" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="39">
+      <c r="A269" s="17">
         <v>268</v>
       </c>
-      <c r="B269" s="40">
+      <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="41" t="s">
+      <c r="C269" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="41" t="s">
+      <c r="D269" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="42" t="s">
+      <c r="E269" s="41" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="39">
+      <c r="A270" s="17">
         <v>269</v>
       </c>
-      <c r="B270" s="40">
+      <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="41" t="s">
+      <c r="C270" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="41" t="s">
+      <c r="D270" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="42" t="s">
+      <c r="E270" s="41" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="39">
+      <c r="A271" s="17">
         <v>270</v>
       </c>
-      <c r="B271" s="40">
+      <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="41" t="s">
+      <c r="C271" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="41" t="s">
+      <c r="D271" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="42" t="s">
+      <c r="E271" s="41" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="39">
+      <c r="A272" s="17">
         <v>271</v>
       </c>
-      <c r="B272" s="40">
+      <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="41" t="s">
+      <c r="C272" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="41" t="s">
+      <c r="D272" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="42" t="s">
+      <c r="E272" s="41" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="39">
+      <c r="A273" s="17">
         <v>272</v>
       </c>
-      <c r="B273" s="40">
+      <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="41" t="s">
+      <c r="C273" s="40" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="41" t="s">
+      <c r="D273" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="42" t="s">
+      <c r="E273" s="41" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="39">
+      <c r="A274" s="17">
         <v>273</v>
       </c>
-      <c r="B274" s="40">
+      <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="41" t="s">
+      <c r="C274" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="41" t="s">
+      <c r="D274" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="42" t="s">
+      <c r="E274" s="41" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="36">
+      <c r="A275" s="17">
         <v>274</v>
       </c>
-      <c r="B275" s="35">
+      <c r="B275" s="13">
         <v>11719</v>
       </c>
-      <c r="C275" s="37" t="s">
+      <c r="C275" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="D275" s="37" t="s">
+      <c r="D275" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E275" s="38" t="s">
+      <c r="E275" s="37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="36">
+      <c r="A276" s="17">
         <v>275</v>
       </c>
-      <c r="B276" s="35">
+      <c r="B276" s="13">
         <v>11720</v>
       </c>
-      <c r="C276" s="37" t="s">
+      <c r="C276" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="D276" s="37" t="s">
+      <c r="D276" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="38" t="s">
+      <c r="E276" s="37" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="36">
+      <c r="A277" s="17">
         <v>276</v>
       </c>
-      <c r="B277" s="35">
+      <c r="B277" s="13">
         <v>11721</v>
       </c>
-      <c r="C277" s="37" t="s">
+      <c r="C277" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="D277" s="37" t="s">
+      <c r="D277" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E277" s="38" t="s">
+      <c r="E277" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="36">
+      <c r="A278" s="17">
         <v>277</v>
       </c>
-      <c r="B278" s="35">
+      <c r="B278" s="13">
         <v>11722</v>
       </c>
-      <c r="C278" s="37" t="s">
+      <c r="C278" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="D278" s="37" t="s">
+      <c r="D278" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E278" s="38" t="s">
+      <c r="E278" s="37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="36">
+      <c r="A279" s="17">
         <v>278</v>
       </c>
-      <c r="B279" s="35">
+      <c r="B279" s="13">
         <v>11723</v>
       </c>
-      <c r="C279" s="37" t="s">
+      <c r="C279" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="D279" s="37" t="s">
+      <c r="D279" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="E279" s="38" t="s">
+      <c r="E279" s="37" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="36">
+      <c r="A280" s="17">
         <v>279</v>
       </c>
-      <c r="B280" s="35">
+      <c r="B280" s="13">
         <v>11724</v>
       </c>
-      <c r="C280" s="37" t="s">
+      <c r="C280" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="D280" s="37" t="s">
+      <c r="D280" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E280" s="38" t="s">
+      <c r="E280" s="37" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="36">
+      <c r="A281" s="17">
         <v>280</v>
       </c>
-      <c r="B281" s="35">
+      <c r="B281" s="13">
         <v>11725</v>
       </c>
-      <c r="C281" s="37" t="s">
+      <c r="C281" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="37" t="s">
+      <c r="D281" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="E281" s="38" t="s">
+      <c r="E281" s="37" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="36">
+      <c r="A282" s="17">
         <v>281</v>
       </c>
-      <c r="B282" s="35">
+      <c r="B282" s="13">
         <v>11726</v>
       </c>
-      <c r="C282" s="37" t="s">
+      <c r="C282" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="D282" s="37" t="s">
+      <c r="D282" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E282" s="38" t="s">
+      <c r="E282" s="37" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="36">
+      <c r="A283" s="17">
         <v>282</v>
       </c>
-      <c r="B283" s="35">
+      <c r="B283" s="13">
         <v>11727</v>
       </c>
-      <c r="C283" s="37" t="s">
+      <c r="C283" s="36" t="s">
         <v>456</v>
       </c>
-      <c r="D283" s="37" t="s">
+      <c r="D283" s="36" t="s">
         <v>388</v>
       </c>
-      <c r="E283" s="38" t="s">
+      <c r="E283" s="37" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284">
+      <c r="A284" s="17">
         <v>283</v>
       </c>
       <c r="B284" s="13">
@@ -18058,7 +18383,7 @@
       </c>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285">
+      <c r="A285" s="17">
         <v>284</v>
       </c>
       <c r="B285" s="13">
@@ -18075,7 +18400,7 @@
       </c>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286">
+      <c r="A286" s="17">
         <v>285</v>
       </c>
       <c r="B286" s="13">
@@ -18092,7 +18417,7 @@
       </c>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287">
+      <c r="A287" s="17">
         <v>286</v>
       </c>
       <c r="B287" s="13">
@@ -18109,10 +18434,10 @@
       </c>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288">
+      <c r="A288" s="17">
         <v>287</v>
       </c>
-      <c r="B288" s="23">
+      <c r="B288" s="13">
         <v>11741</v>
       </c>
       <c r="C288" s="24" t="s">
@@ -18126,10 +18451,10 @@
       </c>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289">
+      <c r="A289" s="17">
         <v>288</v>
       </c>
-      <c r="B289" s="23">
+      <c r="B289" s="13">
         <v>11742</v>
       </c>
       <c r="C289" s="24" t="s">
@@ -18143,10 +18468,10 @@
       </c>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290">
+      <c r="A290" s="17">
         <v>289</v>
       </c>
-      <c r="B290" s="23">
+      <c r="B290" s="13">
         <v>11743</v>
       </c>
       <c r="C290" s="24" t="s">
@@ -18160,10 +18485,10 @@
       </c>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291">
+      <c r="A291" s="17">
         <v>290</v>
       </c>
-      <c r="B291" s="23">
+      <c r="B291" s="13">
         <v>11744</v>
       </c>
       <c r="C291" s="24" t="s">
@@ -18177,10 +18502,10 @@
       </c>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292">
+      <c r="A292" s="17">
         <v>291</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292" s="13">
         <v>11751</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -18189,15 +18514,15 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="45" t="s">
+      <c r="E292" s="44" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293">
+      <c r="A293" s="17">
         <v>292</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293" s="13">
         <v>11752</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -18206,15 +18531,15 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="45" t="s">
+      <c r="E293" s="44" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294">
+      <c r="A294" s="17">
         <v>293</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294" s="13">
         <v>11753</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -18223,15 +18548,15 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="45" t="s">
+      <c r="E294" s="44" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295">
+      <c r="A295" s="17">
         <v>294</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295" s="13">
         <v>11754</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -18240,15 +18565,15 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="45" t="s">
+      <c r="E295" s="44" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296">
+      <c r="A296" s="17">
         <v>295</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296" s="13">
         <v>11755</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -18257,66 +18582,66 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="45" t="s">
+      <c r="E296" s="44" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="16.5">
-      <c r="A297">
+      <c r="A297" s="17">
         <v>296</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297" s="13">
         <v>11761</v>
       </c>
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="46" t="s">
+      <c r="D297" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="45" t="s">
+      <c r="E297" s="44" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="16.5">
-      <c r="A298">
+      <c r="A298" s="17">
         <v>297</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298" s="13">
         <v>11762</v>
       </c>
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="46" t="s">
+      <c r="D298" s="45" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="45" t="s">
+      <c r="E298" s="44" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="16.5">
-      <c r="A299">
+      <c r="A299" s="17">
         <v>298</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299" s="13">
         <v>11763</v>
       </c>
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="46" t="s">
+      <c r="D299" s="45" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="45" t="s">
+      <c r="E299" s="44" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300">
+      <c r="A300" s="17">
         <v>299</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300" s="13">
         <v>11773</v>
       </c>
       <c r="C300" s="3" t="s">
@@ -18325,15 +18650,15 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="45" t="s">
+      <c r="E300" s="44" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301">
+      <c r="A301" s="17">
         <v>300</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301" s="13">
         <v>11774</v>
       </c>
       <c r="C301" s="3" t="s">
@@ -18342,15 +18667,15 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="45" t="s">
+      <c r="E301" s="44" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302">
+      <c r="A302" s="17">
         <v>301</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302" s="13">
         <v>11775</v>
       </c>
       <c r="C302" s="3" t="s">
@@ -18359,15 +18684,15 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="45" t="s">
+      <c r="E302" s="44" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303">
+      <c r="A303" s="17">
         <v>302</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303" s="13">
         <v>11776</v>
       </c>
       <c r="C303" s="3" t="s">
@@ -18376,15 +18701,15 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="45" t="s">
+      <c r="E303" s="44" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304">
+      <c r="A304" s="17">
         <v>303</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304" s="13">
         <v>11777</v>
       </c>
       <c r="C304" s="3" t="s">
@@ -18393,15 +18718,15 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="45" t="s">
+      <c r="E304" s="44" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305">
+      <c r="A305" s="17">
         <v>304</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305" s="13">
         <v>11778</v>
       </c>
       <c r="C305" s="3" t="s">
@@ -18409,10 +18734,10 @@
       </c>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306">
+      <c r="A306" s="17">
         <v>305</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306" s="13">
         <v>11779</v>
       </c>
       <c r="C306" s="3" t="s">
@@ -18421,15 +18746,15 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="45" t="s">
+      <c r="E306" s="44" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307">
+      <c r="A307" s="17">
         <v>306</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307" s="13">
         <v>11780</v>
       </c>
       <c r="C307" s="3" t="s">
@@ -18438,15 +18763,15 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="45" t="s">
+      <c r="E307" s="44" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308">
+      <c r="A308" s="17">
         <v>307</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308" s="13">
         <v>11781</v>
       </c>
       <c r="C308" s="3" t="s">
@@ -18455,15 +18780,15 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="45" t="s">
+      <c r="E308" s="44" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309">
+      <c r="A309" s="17">
         <v>308</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309" s="13">
         <v>11782</v>
       </c>
       <c r="C309" s="3" t="s">
@@ -18472,15 +18797,15 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="45" t="s">
+      <c r="E309" s="44" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310">
+      <c r="A310" s="17">
         <v>309</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310" s="13">
         <v>11783</v>
       </c>
       <c r="C310" s="3" t="s">
@@ -18489,15 +18814,15 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="45" t="s">
+      <c r="E310" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311">
+      <c r="A311" s="17">
         <v>310</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311" s="13">
         <v>11784</v>
       </c>
       <c r="C311" s="3" t="s">
@@ -18506,15 +18831,15 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="45" t="s">
+      <c r="E311" s="44" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312">
+      <c r="A312" s="17">
         <v>311</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312" s="13">
         <v>11785</v>
       </c>
       <c r="C312" s="3" t="s">
@@ -18523,15 +18848,15 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="45" t="s">
+      <c r="E312" s="44" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313">
+      <c r="A313" s="17">
         <v>312</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313" s="13">
         <v>11786</v>
       </c>
       <c r="C313" s="3" t="s">
@@ -18540,15 +18865,15 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="45" t="s">
+      <c r="E313" s="44" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314">
+      <c r="A314" s="17">
         <v>313</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314" s="13">
         <v>11787</v>
       </c>
       <c r="C314" s="3" t="s">
@@ -18557,15 +18882,15 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="45" t="s">
+      <c r="E314" s="44" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315">
+      <c r="A315" s="17">
         <v>314</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315" s="13">
         <v>11788</v>
       </c>
       <c r="C315" s="3" t="s">
@@ -18574,15 +18899,15 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="45" t="s">
+      <c r="E315" s="44" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316">
+      <c r="A316" s="17">
         <v>315</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316" s="13">
         <v>11789</v>
       </c>
       <c r="C316" s="3" t="s">
@@ -18591,15 +18916,15 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="45" t="s">
+      <c r="E316" s="44" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317">
+      <c r="A317" s="17">
         <v>316</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317" s="13">
         <v>11790</v>
       </c>
       <c r="C317" s="3" t="s">
@@ -18608,15 +18933,15 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="45" t="s">
+      <c r="E317" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318">
+      <c r="A318" s="17">
         <v>317</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318" s="13">
         <v>11791</v>
       </c>
       <c r="C318" s="3" t="s">
@@ -18625,15 +18950,15 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="45" t="s">
+      <c r="E318" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319">
+      <c r="A319" s="17">
         <v>318</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319" s="13">
         <v>11792</v>
       </c>
       <c r="C319" s="3" t="s">
@@ -18642,15 +18967,15 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="45" t="s">
+      <c r="E319" s="44" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320">
+      <c r="A320" s="17">
         <v>319</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320" s="13">
         <v>11793</v>
       </c>
       <c r="C320" s="3" t="s">
@@ -18659,15 +18984,15 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="45" t="s">
+      <c r="E320" s="44" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321">
+      <c r="A321" s="17">
         <v>320</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321" s="13">
         <v>11794</v>
       </c>
       <c r="C321" s="3" t="s">
@@ -18676,15 +19001,15 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="45" t="s">
+      <c r="E321" s="44" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322">
+      <c r="A322" s="17">
         <v>321</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322" s="13">
         <v>11795</v>
       </c>
       <c r="C322" s="3" t="s">
@@ -18693,15 +19018,15 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="45" t="s">
+      <c r="E322" s="44" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323">
+      <c r="A323" s="17">
         <v>322</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323" s="13">
         <v>11796</v>
       </c>
       <c r="C323" s="3" t="s">
@@ -18710,15 +19035,15 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="45" t="s">
+      <c r="E323" s="44" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324">
+      <c r="A324" s="17">
         <v>323</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324" s="13">
         <v>11797</v>
       </c>
       <c r="C324" s="3" t="s">
@@ -18727,15 +19052,15 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="45" t="s">
+      <c r="E324" s="44" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325">
+      <c r="A325" s="17">
         <v>324</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325" s="13">
         <v>11798</v>
       </c>
       <c r="C325" s="3" t="s">
@@ -18744,15 +19069,15 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="45" t="s">
+      <c r="E325" s="44" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326">
+      <c r="A326" s="17">
         <v>325</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326" s="13">
         <v>11799</v>
       </c>
       <c r="C326" s="3" t="s">
@@ -18761,15 +19086,15 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="45" t="s">
+      <c r="E326" s="44" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327">
+      <c r="A327" s="17">
         <v>326</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327" s="13">
         <v>11800</v>
       </c>
       <c r="C327" s="3" t="s">
@@ -18778,15 +19103,15 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="45" t="s">
+      <c r="E327" s="44" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328">
+      <c r="A328" s="17">
         <v>327</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328" s="13">
         <v>11801</v>
       </c>
       <c r="C328" s="3" t="s">
@@ -18795,15 +19120,15 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="45" t="s">
+      <c r="E328" s="44" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329">
+      <c r="A329" s="17">
         <v>328</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329" s="13">
         <v>11802</v>
       </c>
       <c r="C329" s="3" t="s">
@@ -18812,15 +19137,15 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="45" t="s">
+      <c r="E329" s="44" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330">
+      <c r="A330" s="17">
         <v>329</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330" s="13">
         <v>11803</v>
       </c>
       <c r="C330" s="3" t="s">
@@ -18829,15 +19154,15 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="45" t="s">
+      <c r="E330" s="44" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331">
+      <c r="A331" s="17">
         <v>330</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331" s="13">
         <v>11804</v>
       </c>
       <c r="C331" s="3" t="s">
@@ -18846,15 +19171,15 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="45" t="s">
+      <c r="E331" s="44" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332">
+      <c r="A332" s="17">
         <v>331</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332" s="13">
         <v>11805</v>
       </c>
       <c r="C332" s="3" t="s">
@@ -18863,15 +19188,15 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="45" t="s">
+      <c r="E332" s="44" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333">
+      <c r="A333" s="17">
         <v>332</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333" s="13">
         <v>11806</v>
       </c>
       <c r="C333" s="3" t="s">
@@ -18880,15 +19205,15 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="45" t="s">
+      <c r="E333" s="44" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334">
+      <c r="A334" s="17">
         <v>333</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334" s="13">
         <v>11807</v>
       </c>
       <c r="C334" s="3" t="s">
@@ -18897,15 +19222,15 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="45" t="s">
+      <c r="E334" s="44" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335">
+      <c r="A335" s="17">
         <v>334</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335" s="13">
         <v>11808</v>
       </c>
       <c r="C335" s="3" t="s">
@@ -18914,15 +19239,15 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="45" t="s">
+      <c r="E335" s="44" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336">
+      <c r="A336" s="17">
         <v>335</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336" s="13">
         <v>11809</v>
       </c>
       <c r="C336" s="3" t="s">
@@ -18931,15 +19256,15 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="45" t="s">
+      <c r="E336" s="44" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337">
+      <c r="A337" s="17">
         <v>336</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337" s="13">
         <v>11810</v>
       </c>
       <c r="C337" s="3" t="s">
@@ -18948,15 +19273,15 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="45" t="s">
+      <c r="E337" s="44" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338">
+      <c r="A338" s="17">
         <v>337</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338" s="13">
         <v>11811</v>
       </c>
       <c r="C338" s="3" t="s">
@@ -18965,15 +19290,15 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="45" t="s">
+      <c r="E338" s="44" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339">
+      <c r="A339" s="17">
         <v>338</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339" s="13">
         <v>11812</v>
       </c>
       <c r="C339" s="3" t="s">
@@ -18982,15 +19307,15 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="45" t="s">
+      <c r="E339" s="44" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340">
+      <c r="A340" s="17">
         <v>339</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340" s="13">
         <v>11813</v>
       </c>
       <c r="C340" s="3" t="s">
@@ -18999,15 +19324,15 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="45" t="s">
+      <c r="E340" s="44" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341">
+      <c r="A341" s="17">
         <v>340</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341" s="13">
         <v>11814</v>
       </c>
       <c r="C341" s="3" t="s">
@@ -19016,7 +19341,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="45" t="s">
+      <c r="E341" s="44" t="s">
         <v>574</v>
       </c>
     </row>
@@ -19169,1208 +19494,1306 @@
       <c r="D350" s="13"/>
       <c r="E350" s="33"/>
     </row>
-    <row r="351" spans="1:5" s="53" customFormat="1">
-      <c r="A351" s="53">
+    <row r="351" spans="1:5" s="52" customFormat="1">
+      <c r="A351" s="17">
         <v>350</v>
       </c>
-      <c r="B351" s="54">
+      <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="54" t="s">
+      <c r="C351" s="53" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="55" t="s">
+      <c r="D351" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="57" t="s">
+      <c r="E351" s="56" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="53" customFormat="1">
-      <c r="A352" s="53">
+    <row r="352" spans="1:5" s="52" customFormat="1">
+      <c r="A352" s="17">
         <v>351</v>
       </c>
-      <c r="B352" s="54">
+      <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="55" t="s">
+      <c r="C352" s="54" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="55" t="s">
+      <c r="D352" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="57" t="s">
+      <c r="E352" s="56" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="53" customFormat="1">
-      <c r="A353" s="53">
+    <row r="353" spans="1:5" s="52" customFormat="1">
+      <c r="A353" s="17">
         <v>352</v>
       </c>
-      <c r="B353" s="54">
+      <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="55" t="s">
+      <c r="C353" s="54" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="55" t="s">
+      <c r="D353" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="57" t="s">
+      <c r="E353" s="56" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="53" customFormat="1">
-      <c r="A354" s="53">
+    <row r="354" spans="1:5" s="52" customFormat="1">
+      <c r="A354" s="17">
         <v>353</v>
       </c>
-      <c r="B354" s="54">
+      <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="55" t="s">
+      <c r="C354" s="54" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="55" t="s">
+      <c r="D354" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="57" t="s">
+      <c r="E354" s="56" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="53" customFormat="1">
-      <c r="A355" s="53">
+    <row r="355" spans="1:5" s="52" customFormat="1">
+      <c r="A355" s="17">
         <v>354</v>
       </c>
-      <c r="B355" s="54">
+      <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="55" t="s">
+      <c r="C355" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="54" t="s">
+      <c r="D355" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="57" t="s">
+      <c r="E355" s="56" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="53" customFormat="1">
-      <c r="A356" s="53">
+    <row r="356" spans="1:5" s="52" customFormat="1">
+      <c r="A356" s="17">
         <v>355</v>
       </c>
-      <c r="B356" s="54">
+      <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="55" t="s">
+      <c r="C356" s="54" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="54" t="s">
+      <c r="D356" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="57" t="s">
+      <c r="E356" s="56" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="53" customFormat="1">
-      <c r="A357" s="53">
+    <row r="357" spans="1:5" s="52" customFormat="1">
+      <c r="A357" s="17">
         <v>356</v>
       </c>
-      <c r="B357" s="54">
+      <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="55" t="s">
+      <c r="C357" s="54" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="55" t="s">
+      <c r="D357" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="57" t="s">
+      <c r="E357" s="56" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="53" customFormat="1">
-      <c r="A358" s="53">
+    <row r="358" spans="1:5" s="52" customFormat="1">
+      <c r="A358" s="17">
         <v>357</v>
       </c>
-      <c r="B358" s="54">
+      <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="55" t="s">
+      <c r="C358" s="54" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="55" t="s">
+      <c r="D358" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="57" t="s">
+      <c r="E358" s="56" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="53" customFormat="1">
-      <c r="A359" s="53">
+    <row r="359" spans="1:5" s="52" customFormat="1">
+      <c r="A359" s="17">
         <v>358</v>
       </c>
-      <c r="B359" s="54">
+      <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="55" t="s">
+      <c r="C359" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="55" t="s">
+      <c r="D359" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="57" t="s">
+      <c r="E359" s="56" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="47" customFormat="1">
-      <c r="A360" s="47">
+    <row r="360" spans="1:5" s="46" customFormat="1">
+      <c r="A360" s="17">
         <v>359</v>
       </c>
-      <c r="B360" s="48">
+      <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="56" t="s">
+      <c r="C360" s="55" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="56" t="s">
+      <c r="D360" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="58" t="s">
+      <c r="E360" s="57" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="47" customFormat="1">
-      <c r="A361" s="47">
+    <row r="361" spans="1:5" s="46" customFormat="1">
+      <c r="A361" s="17">
         <v>360</v>
       </c>
-      <c r="B361" s="48">
+      <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="56" t="s">
+      <c r="C361" s="55" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="56" t="s">
+      <c r="D361" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="58" t="s">
+      <c r="E361" s="57" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="47" customFormat="1">
-      <c r="A362" s="47">
+    <row r="362" spans="1:5" s="46" customFormat="1">
+      <c r="A362" s="17">
         <v>361</v>
       </c>
-      <c r="B362" s="48">
+      <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="56" t="s">
+      <c r="C362" s="55" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="56" t="s">
+      <c r="D362" s="55" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="58" t="s">
+      <c r="E362" s="57" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="47" customFormat="1">
-      <c r="A363" s="47">
+    <row r="363" spans="1:5" s="46" customFormat="1">
+      <c r="A363" s="17">
         <v>362</v>
       </c>
-      <c r="B363" s="48">
+      <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="56" t="s">
+      <c r="C363" s="55" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="56" t="s">
+      <c r="D363" s="55" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="58" t="s">
+      <c r="E363" s="57" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="47" customFormat="1">
-      <c r="A364" s="47">
+    <row r="364" spans="1:5" s="46" customFormat="1">
+      <c r="A364" s="17">
         <v>363</v>
       </c>
-      <c r="B364" s="48">
+      <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="56" t="s">
+      <c r="C364" s="55" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="48" t="s">
+      <c r="D364" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="58" t="s">
+      <c r="E364" s="57" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="47" customFormat="1">
-      <c r="A365" s="47">
+    <row r="365" spans="1:5" s="46" customFormat="1">
+      <c r="A365" s="17">
         <v>364</v>
       </c>
-      <c r="B365" s="48">
+      <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="56" t="s">
+      <c r="C365" s="55" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="48" t="s">
+      <c r="D365" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="58" t="s">
+      <c r="E365" s="57" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="47" customFormat="1">
-      <c r="A366" s="47">
+    <row r="366" spans="1:5" s="46" customFormat="1">
+      <c r="A366" s="17">
         <v>365</v>
       </c>
-      <c r="B366" s="48">
+      <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="56" t="s">
+      <c r="C366" s="55" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="56" t="s">
+      <c r="D366" s="55" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="58" t="s">
+      <c r="E366" s="57" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="47" customFormat="1">
-      <c r="A367" s="47">
+    <row r="367" spans="1:5" s="46" customFormat="1">
+      <c r="A367" s="17">
         <v>366</v>
       </c>
-      <c r="B367" s="48">
+      <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="56" t="s">
+      <c r="C367" s="55" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="56" t="s">
+      <c r="D367" s="55" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="58" t="s">
+      <c r="E367" s="57" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="47" customFormat="1">
-      <c r="A368" s="47">
+    <row r="368" spans="1:5" s="46" customFormat="1">
+      <c r="A368" s="17">
         <v>367</v>
       </c>
-      <c r="B368" s="48">
+      <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="56" t="s">
+      <c r="C368" s="55" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="56" t="s">
+      <c r="D368" s="55" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="58" t="s">
+      <c r="E368" s="57" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="53" customFormat="1">
-      <c r="A369" s="53">
+    <row r="369" spans="1:5" s="52" customFormat="1">
+      <c r="A369" s="17">
         <v>368</v>
       </c>
-      <c r="B369" s="54">
+      <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="55" t="s">
+      <c r="C369" s="54" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="55" t="s">
+      <c r="D369" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="57" t="s">
+      <c r="E369" s="56" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="53" customFormat="1">
-      <c r="A370" s="53">
+    <row r="370" spans="1:5" s="52" customFormat="1">
+      <c r="A370" s="17">
         <v>369</v>
       </c>
-      <c r="B370" s="54">
+      <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="55" t="s">
+      <c r="C370" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="55" t="s">
+      <c r="D370" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="57" t="s">
+      <c r="E370" s="56" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="53" customFormat="1">
-      <c r="A371" s="53">
+    <row r="371" spans="1:5" s="52" customFormat="1">
+      <c r="A371" s="17">
         <v>370</v>
       </c>
-      <c r="B371" s="54">
+      <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="55" t="s">
+      <c r="C371" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="55" t="s">
+      <c r="D371" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="57" t="s">
+      <c r="E371" s="56" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="53" customFormat="1">
-      <c r="A372" s="53">
+    <row r="372" spans="1:5" s="52" customFormat="1">
+      <c r="A372" s="17">
         <v>371</v>
       </c>
-      <c r="B372" s="54">
+      <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="55" t="s">
+      <c r="C372" s="54" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="55" t="s">
+      <c r="D372" s="54" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="57" t="s">
+      <c r="E372" s="56" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="53" customFormat="1">
-      <c r="A373" s="53">
+    <row r="373" spans="1:5" s="52" customFormat="1">
+      <c r="A373" s="17">
         <v>372</v>
       </c>
-      <c r="B373" s="54">
+      <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="55" t="s">
+      <c r="C373" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="54" t="s">
+      <c r="D373" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="57" t="s">
+      <c r="E373" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="53" customFormat="1">
-      <c r="A374" s="53">
+    <row r="374" spans="1:5" s="52" customFormat="1">
+      <c r="A374" s="17">
         <v>373</v>
       </c>
-      <c r="B374" s="54">
+      <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="55" t="s">
+      <c r="C374" s="54" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="54" t="s">
+      <c r="D374" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="57" t="s">
+      <c r="E374" s="56" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="53" customFormat="1">
-      <c r="A375" s="53">
+    <row r="375" spans="1:5" s="52" customFormat="1">
+      <c r="A375" s="17">
         <v>374</v>
       </c>
-      <c r="B375" s="54">
+      <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="55" t="s">
+      <c r="C375" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="55" t="s">
+      <c r="D375" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="57" t="s">
+      <c r="E375" s="56" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="53" customFormat="1">
-      <c r="A376" s="53">
+    <row r="376" spans="1:5" s="52" customFormat="1">
+      <c r="A376" s="17">
         <v>375</v>
       </c>
-      <c r="B376" s="54">
+      <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="55" t="s">
+      <c r="C376" s="54" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="55" t="s">
+      <c r="D376" s="54" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="57" t="s">
+      <c r="E376" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="53" customFormat="1">
-      <c r="A377" s="53">
+    <row r="377" spans="1:5" s="52" customFormat="1">
+      <c r="A377" s="17">
         <v>376</v>
       </c>
-      <c r="B377" s="54">
+      <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="55" t="s">
+      <c r="C377" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="55" t="s">
+      <c r="D377" s="54" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="57" t="s">
+      <c r="E377" s="56" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="66" customFormat="1">
-      <c r="A378" s="66">
+    <row r="378" spans="1:5" s="65" customFormat="1">
+      <c r="A378" s="17">
         <v>377</v>
       </c>
-      <c r="B378" s="64">
+      <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="64" t="s">
+      <c r="C378" s="63" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="64" t="s">
+      <c r="D378" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="67" t="s">
+      <c r="E378" s="66" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="66" customFormat="1">
-      <c r="A379" s="66">
+    <row r="379" spans="1:5" s="65" customFormat="1">
+      <c r="A379" s="17">
         <v>378</v>
       </c>
-      <c r="B379" s="64">
+      <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="68" t="s">
+      <c r="C379" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="68" t="s">
+      <c r="D379" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="67" t="s">
+      <c r="E379" s="66" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="66" customFormat="1">
-      <c r="A380" s="66">
+    <row r="380" spans="1:5" s="65" customFormat="1">
+      <c r="A380" s="17">
         <v>379</v>
       </c>
-      <c r="B380" s="64">
+      <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="68" t="s">
+      <c r="C380" s="67" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="64" t="s">
+      <c r="D380" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="67" t="s">
+      <c r="E380" s="66" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="66" customFormat="1">
-      <c r="A381" s="66">
+    <row r="381" spans="1:5" s="65" customFormat="1">
+      <c r="A381" s="17">
         <v>380</v>
       </c>
-      <c r="B381" s="64">
+      <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="68" t="s">
+      <c r="C381" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="68" t="s">
+      <c r="D381" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="67" t="s">
+      <c r="E381" s="66" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="66" customFormat="1">
-      <c r="A382" s="66">
+    <row r="382" spans="1:5" s="65" customFormat="1">
+      <c r="A382" s="17">
         <v>381</v>
       </c>
-      <c r="B382" s="64">
+      <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="68" t="s">
+      <c r="C382" s="67" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="68" t="s">
+      <c r="D382" s="67" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="67" t="s">
+      <c r="E382" s="66" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="66" customFormat="1">
-      <c r="A383" s="66">
+    <row r="383" spans="1:5" s="65" customFormat="1">
+      <c r="A383" s="17">
         <v>382</v>
       </c>
-      <c r="B383" s="64">
+      <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="68" t="s">
+      <c r="C383" s="67" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="64"/>
-      <c r="E383" s="69"/>
+      <c r="D383" s="63"/>
+      <c r="E383" s="68"/>
     </row>
     <row r="384" spans="1:5" ht="16.5">
-      <c r="A384" s="66">
+      <c r="A384" s="17">
         <v>383</v>
       </c>
-      <c r="B384" s="64">
+      <c r="B384" s="13">
         <v>11857</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="46" t="s">
+      <c r="D384" s="45" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="45" t="s">
+      <c r="E384" s="44" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="385" spans="1:5" ht="16.5">
-      <c r="A385" s="66">
+      <c r="A385" s="17">
         <v>384</v>
       </c>
-      <c r="B385" s="64">
+      <c r="B385" s="13">
         <v>11858</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="46" t="s">
+      <c r="D385" s="45" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="45" t="s">
+      <c r="E385" s="44" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="77">
+      <c r="A386" s="17">
         <v>385</v>
       </c>
-      <c r="B386" s="76">
+      <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="71" t="s">
+      <c r="C386" s="70" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="76" t="s">
+      <c r="D386" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="78" t="s">
+      <c r="E386" s="77" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="387" spans="1:5">
-      <c r="A387" s="77">
+      <c r="A387" s="17">
         <v>386</v>
       </c>
-      <c r="B387" s="76">
+      <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="71" t="s">
+      <c r="C387" s="70" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="76" t="s">
+      <c r="D387" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="78" t="s">
+      <c r="E387" s="77" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="77">
+      <c r="A388" s="17">
         <v>387</v>
       </c>
-      <c r="B388" s="76">
+      <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="71" t="s">
+      <c r="C388" s="70" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="76" t="s">
+      <c r="D388" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="78" t="s">
+      <c r="E388" s="77" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="77">
+      <c r="A389" s="17">
         <v>388</v>
       </c>
-      <c r="B389" s="76">
+      <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="71" t="s">
+      <c r="C389" s="70" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="76" t="s">
+      <c r="D389" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="78" t="s">
+      <c r="E389" s="77" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="77">
+      <c r="A390" s="17">
         <v>389</v>
       </c>
-      <c r="B390" s="76">
+      <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="71" t="s">
+      <c r="C390" s="70" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="76" t="s">
+      <c r="D390" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="78" t="s">
+      <c r="E390" s="77" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="77">
+      <c r="A391" s="17">
         <v>390</v>
       </c>
-      <c r="B391" s="76">
+      <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="71" t="s">
+      <c r="C391" s="70" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="76" t="s">
+      <c r="D391" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="78" t="s">
+      <c r="E391" s="77" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="77">
+      <c r="A392" s="17">
         <v>391</v>
       </c>
-      <c r="B392" s="76">
+      <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="71" t="s">
+      <c r="C392" s="70" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="76" t="s">
+      <c r="D392" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="78" t="s">
+      <c r="E392" s="77" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="393" spans="1:5">
-      <c r="A393" s="77">
+      <c r="A393" s="17">
         <v>392</v>
       </c>
-      <c r="B393" s="76">
+      <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="71" t="s">
+      <c r="C393" s="70" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="76" t="s">
+      <c r="D393" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="78" t="s">
+      <c r="E393" s="77" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="77">
+      <c r="A394" s="17">
         <v>393</v>
       </c>
-      <c r="B394" s="76">
+      <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="71" t="s">
+      <c r="C394" s="70" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="76" t="s">
+      <c r="D394" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="78" t="s">
+      <c r="E394" s="77" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="77">
+      <c r="A395" s="17">
         <v>394</v>
       </c>
-      <c r="B395" s="76">
+      <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="71" t="s">
+      <c r="C395" s="70" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="76" t="s">
+      <c r="D395" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="78" t="s">
+      <c r="E395" s="77" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="77">
+      <c r="A396" s="17">
         <v>395</v>
       </c>
-      <c r="B396" s="76">
+      <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="71" t="s">
+      <c r="C396" s="70" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="76" t="s">
+      <c r="D396" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="78" t="s">
+      <c r="E396" s="77" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="77">
+      <c r="A397" s="17">
         <v>396</v>
       </c>
-      <c r="B397" s="76">
+      <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="71" t="s">
+      <c r="C397" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="76" t="s">
+      <c r="D397" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="78" t="s">
+      <c r="E397" s="77" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="77">
+      <c r="A398" s="17">
         <v>397</v>
       </c>
-      <c r="B398" s="76">
+      <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="71" t="s">
+      <c r="C398" s="70" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="76" t="s">
+      <c r="D398" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="78" t="s">
+      <c r="E398" s="77" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="77">
+      <c r="A399" s="17">
         <v>398</v>
       </c>
-      <c r="B399" s="76">
+      <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="71" t="s">
+      <c r="C399" s="70" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="76" t="s">
+      <c r="D399" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="78" t="s">
+      <c r="E399" s="77" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="77">
+      <c r="A400" s="17">
         <v>399</v>
       </c>
-      <c r="B400" s="76">
+      <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="71" t="s">
+      <c r="C400" s="70" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="76" t="s">
+      <c r="D400" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="78" t="s">
+      <c r="E400" s="77" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="77">
+      <c r="A401" s="17">
         <v>400</v>
       </c>
-      <c r="B401" s="76">
+      <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="71" t="s">
+      <c r="C401" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="76" t="s">
+      <c r="D401" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="78" t="s">
+      <c r="E401" s="77" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="77">
+      <c r="A402" s="17">
         <v>401</v>
       </c>
-      <c r="B402" s="76">
+      <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="71" t="s">
+      <c r="C402" s="70" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="76" t="s">
+      <c r="D402" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="78" t="s">
+      <c r="E402" s="77" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="77">
+      <c r="A403" s="17">
         <v>402</v>
       </c>
-      <c r="B403" s="76">
+      <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="71" t="s">
+      <c r="C403" s="70" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="76" t="s">
+      <c r="D403" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="78" t="s">
+      <c r="E403" s="77" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="77">
+      <c r="A404" s="17">
         <v>403</v>
       </c>
-      <c r="B404" s="76">
+      <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="71" t="s">
+      <c r="C404" s="70" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="76" t="s">
+      <c r="D404" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="78" t="s">
+      <c r="E404" s="77" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="77">
+      <c r="A405" s="17">
         <v>404</v>
       </c>
-      <c r="B405" s="76">
+      <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="71" t="s">
+      <c r="C405" s="70" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="76" t="s">
+      <c r="D405" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="78" t="s">
+      <c r="E405" s="77" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="77">
+      <c r="A406" s="17">
         <v>405</v>
       </c>
-      <c r="B406" s="76">
+      <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="71" t="s">
+      <c r="C406" s="70" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="76" t="s">
+      <c r="D406" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="78" t="s">
+      <c r="E406" s="77" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="77">
+      <c r="A407" s="17">
         <v>406</v>
       </c>
-      <c r="B407" s="76">
+      <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="71" t="s">
+      <c r="C407" s="70" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="76" t="s">
+      <c r="D407" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="78" t="s">
+      <c r="E407" s="77" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="77">
+      <c r="A408" s="17">
         <v>407</v>
       </c>
-      <c r="B408" s="76">
+      <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="71" t="s">
+      <c r="C408" s="70" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="76" t="s">
+      <c r="D408" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="78" t="s">
+      <c r="E408" s="77" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="77">
+      <c r="A409" s="17">
         <v>408</v>
       </c>
-      <c r="B409" s="76">
+      <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="71" t="s">
+      <c r="C409" s="70" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="76" t="s">
+      <c r="D409" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="78" t="s">
+      <c r="E409" s="77" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="77">
+      <c r="A410" s="17">
         <v>409</v>
       </c>
-      <c r="B410" s="76">
+      <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="71" t="s">
+      <c r="C410" s="70" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="76" t="s">
+      <c r="D410" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="78" t="s">
+      <c r="E410" s="77" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="77">
+      <c r="A411" s="17">
         <v>410</v>
       </c>
-      <c r="B411" s="76">
+      <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="71" t="s">
+      <c r="C411" s="70" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="76" t="s">
+      <c r="D411" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="78" t="s">
+      <c r="E411" s="77" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="77">
+      <c r="A412" s="17">
         <v>411</v>
       </c>
-      <c r="B412" s="76">
+      <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="71" t="s">
+      <c r="C412" s="70" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="76" t="s">
+      <c r="D412" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="78" t="s">
+      <c r="E412" s="77" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="77">
+      <c r="A413" s="17">
         <v>412</v>
       </c>
-      <c r="B413" s="76">
+      <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="71" t="s">
+      <c r="C413" s="70" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="76" t="s">
+      <c r="D413" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="78" t="s">
+      <c r="E413" s="77" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="77">
+      <c r="A414" s="17">
         <v>413</v>
       </c>
-      <c r="B414" s="76">
+      <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="71" t="s">
+      <c r="C414" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="76" t="s">
+      <c r="D414" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="78" t="s">
+      <c r="E414" s="77" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="77">
+      <c r="A415" s="17">
         <v>414</v>
       </c>
-      <c r="B415" s="76">
+      <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="71" t="s">
+      <c r="C415" s="70" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="76" t="s">
+      <c r="D415" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="78" t="s">
+      <c r="E415" s="77" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="77">
+      <c r="A416" s="17">
         <v>415</v>
       </c>
-      <c r="B416" s="76">
+      <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="71" t="s">
+      <c r="C416" s="70" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="76" t="s">
+      <c r="D416" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="78" t="s">
+      <c r="E416" s="77" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="77">
+      <c r="A417" s="17">
         <v>416</v>
       </c>
-      <c r="B417" s="76">
+      <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="71" t="s">
+      <c r="C417" s="70" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="76" t="s">
+      <c r="D417" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="78" t="s">
+      <c r="E417" s="77" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="77">
+      <c r="A418" s="17">
         <v>417</v>
       </c>
-      <c r="B418" s="76">
+      <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="71" t="s">
+      <c r="C418" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="76" t="s">
+      <c r="D418" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="78" t="s">
+      <c r="E418" s="77" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="77">
+      <c r="A419" s="17">
         <v>418</v>
       </c>
-      <c r="B419" s="76">
+      <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="71" t="s">
+      <c r="C419" s="70" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="76" t="s">
+      <c r="D419" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="78" t="s">
+      <c r="E419" s="77" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="77">
+      <c r="A420" s="17">
         <v>419</v>
       </c>
-      <c r="B420" s="76">
+      <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="71" t="s">
+      <c r="C420" s="70" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="76" t="s">
+      <c r="D420" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="78" t="s">
+      <c r="E420" s="77" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="77">
+      <c r="A421" s="17">
         <v>420</v>
       </c>
-      <c r="B421" s="76">
+      <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="71" t="s">
+      <c r="C421" s="70" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="76" t="s">
+      <c r="D421" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="78" t="s">
+      <c r="E421" s="77" t="s">
         <v>574</v>
       </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="17">
+        <v>421</v>
+      </c>
+      <c r="B422" s="13">
+        <v>11895</v>
+      </c>
+      <c r="C422" s="40" t="s">
+        <v>680</v>
+      </c>
+      <c r="D422" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E422" s="41" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="17">
+        <v>422</v>
+      </c>
+      <c r="B423" s="13">
+        <v>11896</v>
+      </c>
+      <c r="C423" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="D423" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="E423" s="41" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="17">
+        <v>423</v>
+      </c>
+      <c r="B424" s="13">
+        <v>11897</v>
+      </c>
+      <c r="C424" s="40" t="s">
+        <v>682</v>
+      </c>
+      <c r="D424" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E424" s="41" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="17">
+        <v>424</v>
+      </c>
+      <c r="B425" s="13">
+        <v>11898</v>
+      </c>
+      <c r="C425" s="40" t="s">
+        <v>683</v>
+      </c>
+      <c r="D425" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="E425" s="41" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="17">
+        <v>425</v>
+      </c>
+      <c r="B426" s="13">
+        <v>11899</v>
+      </c>
+      <c r="C426" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="D426" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E426" s="41" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="17">
+        <v>426</v>
+      </c>
+      <c r="B427" s="13">
+        <v>11900</v>
+      </c>
+      <c r="C427" s="40" t="s">
+        <v>685</v>
+      </c>
+      <c r="D427" s="39"/>
+      <c r="E427" s="82"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -20384,7 +20807,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
